--- a/public/data/testing/covid-testing-latest-data-source-details.xlsx
+++ b/public/data/testing/covid-testing-latest-data-source-details.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="817">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -166,7 +166,7 @@
     <t xml:space="preserve">Armenia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.am/#3/4206</t>
+    <t xml:space="preserve">https://www.moh.am/#3/4224</t>
   </si>
   <si>
     <t xml:space="preserve">https://twitter.com/MinHealth_Arm</t>
@@ -183,7 +183,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/08/coronavirus-covid-19-at-a-glance-16-august-2021_0.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/08/coronavirus-covid-19-at-a-glance-19-august-2021_0.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -279,7 +279,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-latest-966-new-cases-1062-recoveries_i_0000133302.html</t>
+    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-latest-1355-new-cases-1408-recoveries_i_0000133518.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Belarus</t>
@@ -382,7 +382,7 @@
     <t xml:space="preserve">Bolivia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://minsalud.gob.bo/5898-reporte-514-del-ministerio-de-salud-hasta-hoy-se-aplicaron-4-879-099-vacunas-anticovid-y-1-124-pacientes-se-recuperaron</t>
+    <t xml:space="preserve">https://minsalud.gob.bo/5928-reporte-521-del-ministerio-de-salud-hasta-hoy-se-aplicaron-5-215-804-vacunas-anticovid-y-764-pacientes-se-recuperaron</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.minsalud.gob.bo/</t>
@@ -501,7 +501,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-15-de-agosto-de-2021/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-18-de-agosto-de-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -599,7 +599,7 @@
     <t xml:space="preserve">Cote d'Ivoire - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/1974492689383082</t>
+    <t xml:space="preserve">https://www.facebook.com/mshpcmu/posts/1979050995593918</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Public Hygiene</t>
@@ -694,7 +694,7 @@
     <t xml:space="preserve">Democratic Republic of Congo - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://us3.campaign-archive.com/?u=b34a30571d429859fb249533d&amp;id=20f2d29a14</t>
+    <t xml:space="preserve">https://us3.campaign-archive.com/?u=b34a30571d429859fb249533d&amp;id=8bab46e1d7</t>
   </si>
   <si>
     <t xml:space="preserve">DRC COVID-19 Pandemic Response Multisectoral Committee</t>
@@ -713,7 +713,7 @@
     <t xml:space="preserve">Denmark - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-16082021-cmed</t>
+    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/overvaagningsdata-covid19-19082021-yz10</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -731,7 +731,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/08/Boletin-COVID-19-no.509.pdf</t>
+    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/08/Boletin-COVID-19-no.516.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -750,7 +750,7 @@
     <t xml:space="preserve">Ecuador - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.salud.gob.ec/wp-content/uploads/2021/08/MSP_ecu_cvd19_datos_epi_20210811_03h00.11.pdf</t>
+    <t xml:space="preserve">https://www.salud.gob.ec/wp-content/uploads/2021/08/MSP_ecu_cvd19_datos_epi_20210811_03h00.11-1.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -930,10 +930,13 @@
     <t xml:space="preserve">Gambia - samples tested</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.moh.gov.gm/wp-content/uploads/2021/08/GMB-COVID-19-Situational-Report-2021-7th_9th-August-No-353.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Health, The Gambia</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.moh.gov.gm/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ministry of Health, The Gambia</t>
   </si>
   <si>
     <t xml:space="preserve">The Gambian Ministry of Health maintains a [dashboard](https://www.moh.gov.gm/) reporting the number of samples tested. Data is available from 18 March 2020 to 15 March 2021.
@@ -946,7 +949,7 @@
     <t xml:space="preserve">Georgia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://agenda.ge/en/news/2021/2286</t>
+    <t xml:space="preserve">https://agenda.ge/en/news/2021/2366</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Georgia</t>
@@ -1008,7 +1011,7 @@
     <t xml:space="preserve">Greece - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eody.gov.gr/wp-content/uploads/2021/08/covid-gr-daily-report-20210812.pdf</t>
+    <t xml:space="preserve">https://eody.gov.gr/wp-content/uploads/2021/08/covid-gr-daily-report-20210819.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">National Organization of Public Health</t>
@@ -1163,7 +1166,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/368499</t>
+    <t xml:space="preserve">http://irangov.ir/detail/368659</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -1183,7 +1186,7 @@
     <t xml:space="preserve">Iraq - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1425493615011405833</t>
+    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1428342309343711236</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Environment</t>
@@ -1286,7 +1289,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-sunday-august-15-2021/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-wednesday-august-18-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -1395,7 +1398,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1425872232753029124</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1428061774197239822</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1540,7 +1543,7 @@
     <t xml:space="preserve">Madagascar - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/minsanp/photos/pcb.4398567223541161/4398557980208752/</t>
+    <t xml:space="preserve">https://www.facebook.com/minsanp/photos/pcb.4416557195075497/4416547741743109/</t>
   </si>
   <si>
     <t xml:space="preserve">Madagascar Ministry of Public Health</t>
@@ -1604,7 +1607,7 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1425864528856707075</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1428401136596176904</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1625,7 +1628,7 @@
     <t xml:space="preserve">Malta - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/sahhagovmt/photos/a.102565371462015/397280615323821/</t>
+    <t xml:space="preserve">https://www.facebook.com/sahhagovmt/photos/a.102565371462015/401965468188669/</t>
   </si>
   <si>
     <t xml:space="preserve">Maltese Ministry of Health</t>
@@ -1716,7 +1719,7 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1425850239118893066</t>
+    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1428386974302355456</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1738,7 +1741,7 @@
     <t xml:space="preserve">Mozambique - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.misau.gov.mz/index.php/covid-19-boletins-diarios?download=1096:boletim-diario-covid-19-n-512</t>
+    <t xml:space="preserve">https://www.misau.gov.mz/index.php/covid-19-boletins-diarios?download=1114:boletim-diario-covid-19-n-519</t>
   </si>
   <si>
     <t xml:space="preserve">Mozambique Ministry of Health</t>
@@ -1759,7 +1762,7 @@
     <t xml:space="preserve">Myanmar - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FAug_2021%20(A)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208-00%20PM%20News%20(11-8-2021).pdf</t>
+    <t xml:space="preserve">https://mohs.gov.mm/ckfinder/connector?command=Proxy&amp;lang=en&amp;type=Main&amp;currentFolder=%2FNews%2FNews_2021%2FAug_2021%20(B)%2F&amp;hash=a6a1c319429b7abc0a8e21dc137ab33930842cf5&amp;fileName=COVID-19%208-00%20PM%20News%20(18-8-2021).pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Myanmar Ministry of Health and Sports</t>
@@ -1779,7 +1782,7 @@
     <t xml:space="preserve">Namibia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.796499551023050/796499371023068</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.800678790605126/800678593938479</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Services</t>
@@ -1801,7 +1804,7 @@
     <t xml:space="preserve">Nepal - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1tplfpCV-KCtUKWsTVWn1V0XiVH0YQ0ca</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1ZhwbFHAR5R8k669sF3fhPEImSTf9DPSA</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -1822,7 +1825,7 @@
     <t xml:space="preserve">Netherlands - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2021-08/COVID-19_WebSite_rapport_wekelijks_20210810_1147_final.pdf</t>
+    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2021-08/COVID-19_WebSite_rapport_wekelijks_20210817_1158_publicatie.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">National Institute for Public Health and the Environment</t>
@@ -1954,7 +1957,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mohps/posts/4059448180847696</t>
+    <t xml:space="preserve">https://www.facebook.com/mohps/posts/4079749958817518</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -1976,7 +1979,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1425612115377852418</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1428175054546870275</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -2010,7 +2013,7 @@
     <t xml:space="preserve">Paraguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/msaludpy/status/1425621536313073664</t>
+    <t xml:space="preserve">https://twitter.com/msaludpy/status/1428127129082941447</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay Ministry of Public Health and Social Welfare</t>
@@ -2030,6 +2033,9 @@
     <t xml:space="preserve">Peru - tests performed</t>
   </si>
   <si>
+    <t xml:space="preserve">https://datos.ins.gob.pe/dataset/dataset-de-pruebas-moleculares-del-instituto-nacional-de-salud-ins</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://datos.ins.gob.pe/dataset?q=%22pruebas+moleculares%22&amp;organization=covid-19</t>
   </si>
   <si>
@@ -2044,7 +2050,7 @@
     <t xml:space="preserve">Philippines - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1YGFpFa5jGyuGGb4m6_TQDnNkEr0_X1aQ</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1X6UvNW3PIEGMKYQ0pa6U8Afe7hmo2nqD</t>
   </si>
   <si>
     <t xml:space="preserve">Philippines Department of Health</t>
@@ -2065,7 +2071,7 @@
     <t xml:space="preserve">Poland - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1425740086679855109</t>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1428276801504260097</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -2128,7 +2134,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRESĂ_-_16_august_2021,_ora_13.00.pdf</t>
+    <t xml:space="preserve">https://gov.ro/fisiere/comunicate_fisiere/BULETIN_DE_PRESĂ_20_AUGUST.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -2151,7 +2157,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=18704</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=18736</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2368,7 +2374,7 @@
     <t xml:space="preserve">Spain - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov/documentos/Covid_19_pruebas_diagnosticas_05_08_2021.pdf</t>
+    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov/documentos/Covid_19_pruebas_diagnosticas_12_08_2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Consumption and Social Welfare</t>
@@ -2492,9 +2498,6 @@
     <t xml:space="preserve">Togo Ministry of Health</t>
   </si>
   <si>
-    <t xml:space="preserve">Provided to OWID directly by MOH</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://covid19.gouv.tg/</t>
   </si>
   <si>
@@ -2512,7 +2515,7 @@
     <t xml:space="preserve">Trinidad and Tobago - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-812/</t>
+    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-814/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.covid19.gov.tt/category/covid-19-updates/</t>
@@ -2575,7 +2578,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1425737277523771394</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1428347439187038211</t>
   </si>
   <si>
     <t xml:space="preserve">Uganda Ministry of Health</t>
@@ -2704,7 +2707,7 @@
     <t xml:space="preserve">Vietnam - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://luatvietnam.vn/y-te/bao-cao-1192-bc-byt-tinh-hinh-dich-covid-19-va-ket-qua-cong-tac-phong-chong-dich-207382-d6.html</t>
+    <t xml:space="preserve">https://luatvietnam.vn/y-te/bao-cao-1217-bc-byt-207842-d6.html</t>
   </si>
   <si>
     <t xml:space="preserve">Vietnam Ministry of Health</t>
@@ -2750,7 +2753,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1425564383694970880</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1428120260394242055</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -2768,8 +2771,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -2806,7 +2811,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3093,10 +3098,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -3224,7 +3229,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>44417</v>
+        <v>44424</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -3234,27 +3239,27 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3" t="n">
-        <v>206208</v>
+        <v>207446</v>
       </c>
       <c r="I3" t="n">
-        <v>2668.841</v>
+        <v>2684.864</v>
       </c>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3" t="n">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="M3" t="n">
-        <v>2.718</v>
+        <v>2.291</v>
       </c>
       <c r="N3" t="n">
-        <v>0.061</v>
+        <v>0.095</v>
       </c>
       <c r="O3" t="n">
-        <v>16.5</v>
+        <v>10.5</v>
       </c>
       <c r="P3" t="s">
         <v>30</v>
@@ -3322,7 +3327,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44419</v>
+        <v>44422</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3332,31 +3337,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="H5" t="n">
-        <v>12652709</v>
+        <v>12766144</v>
       </c>
       <c r="I5" t="n">
-        <v>279.953</v>
+        <v>282.463</v>
       </c>
       <c r="J5" t="n">
-        <v>38213</v>
+        <v>29710</v>
       </c>
       <c r="K5" t="n">
-        <v>0.845</v>
+        <v>0.657</v>
       </c>
       <c r="L5" t="n">
-        <v>34141</v>
+        <v>33888</v>
       </c>
       <c r="M5" t="n">
-        <v>0.755</v>
+        <v>0.75</v>
       </c>
       <c r="N5" t="n">
-        <v>0.098</v>
+        <v>0.084</v>
       </c>
       <c r="O5" t="n">
-        <v>10.2</v>
+        <v>11.9</v>
       </c>
       <c r="P5" t="s">
         <v>43</v>
@@ -3379,7 +3384,7 @@
         <v>47</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44420</v>
+        <v>44427</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -3389,31 +3394,31 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="H6" t="n">
-        <v>1415538</v>
+        <v>1461464</v>
       </c>
       <c r="I6" t="n">
-        <v>477.7</v>
+        <v>493.199</v>
       </c>
       <c r="J6" t="n">
-        <v>6447</v>
+        <v>7514</v>
       </c>
       <c r="K6" t="n">
-        <v>2.176</v>
+        <v>2.536</v>
       </c>
       <c r="L6" t="n">
-        <v>6162</v>
+        <v>6561</v>
       </c>
       <c r="M6" t="n">
-        <v>2.079</v>
+        <v>2.214</v>
       </c>
       <c r="N6" t="n">
-        <v>0.048</v>
+        <v>0.062</v>
       </c>
       <c r="O6" t="n">
-        <v>20.8</v>
+        <v>16.2</v>
       </c>
       <c r="P6" t="s">
         <v>36</v>
@@ -3436,7 +3441,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -3446,27 +3451,31 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="H7" t="n">
-        <v>28177587</v>
+        <v>28776897</v>
       </c>
       <c r="I7" t="n">
-        <v>1105.009</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7"/>
+        <v>1128.511</v>
+      </c>
+      <c r="J7" t="n">
+        <v>206177</v>
+      </c>
+      <c r="K7" t="n">
+        <v>8.085</v>
+      </c>
       <c r="L7" t="n">
-        <v>203730</v>
+        <v>202250</v>
       </c>
       <c r="M7" t="n">
-        <v>7.989</v>
+        <v>7.931</v>
       </c>
       <c r="N7" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="O7" t="n">
-        <v>464.5</v>
+        <v>348.4</v>
       </c>
       <c r="P7" t="s">
         <v>54</v>
@@ -3489,7 +3498,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44423</v>
+        <v>44426</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -3499,31 +3508,31 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="H8" t="n">
-        <v>71577449</v>
+        <v>72424887</v>
       </c>
       <c r="I8" t="n">
-        <v>7947.398</v>
+        <v>8041.491</v>
       </c>
       <c r="J8" t="n">
-        <v>395705</v>
+        <v>269632</v>
       </c>
       <c r="K8" t="n">
-        <v>43.936</v>
+        <v>29.938</v>
       </c>
       <c r="L8" t="n">
-        <v>327749</v>
+        <v>330898</v>
       </c>
       <c r="M8" t="n">
-        <v>36.391</v>
+        <v>36.74</v>
       </c>
       <c r="N8" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="O8" t="n">
-        <v>406.1</v>
+        <v>353.2</v>
       </c>
       <c r="P8" t="s">
         <v>60</v>
@@ -3546,7 +3555,7 @@
         <v>63</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="D9" t="s">
         <v>64</v>
@@ -3556,21 +3565,21 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H9" t="n">
-        <v>4220135</v>
+        <v>4268668</v>
       </c>
       <c r="I9" t="n">
-        <v>416.221</v>
+        <v>421.007</v>
       </c>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9" t="n">
-        <v>12334</v>
+        <v>14929</v>
       </c>
       <c r="M9" t="n">
-        <v>1.216</v>
+        <v>1.472</v>
       </c>
       <c r="N9"/>
       <c r="O9"/>
@@ -3595,7 +3604,7 @@
         <v>68</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
@@ -3605,21 +3614,21 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="H10" t="n">
-        <v>5693371</v>
+        <v>5735703</v>
       </c>
       <c r="I10" t="n">
-        <v>3345.926</v>
+        <v>3370.804</v>
       </c>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10" t="n">
-        <v>13353</v>
+        <v>14880</v>
       </c>
       <c r="M10" t="n">
-        <v>7.847</v>
+        <v>8.745</v>
       </c>
       <c r="N10"/>
       <c r="O10"/>
@@ -3644,7 +3653,7 @@
         <v>75</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="D11" t="s">
         <v>76</v>
@@ -3654,31 +3663,31 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="H11" t="n">
-        <v>8404313</v>
+        <v>8517620</v>
       </c>
       <c r="I11" t="n">
-        <v>51.031</v>
+        <v>51.719</v>
       </c>
       <c r="J11" t="n">
-        <v>33015</v>
+        <v>41014</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2</v>
+        <v>0.249</v>
       </c>
       <c r="L11" t="n">
-        <v>41872</v>
+        <v>38497</v>
       </c>
       <c r="M11" t="n">
-        <v>0.254</v>
+        <v>0.234</v>
       </c>
       <c r="N11" t="n">
-        <v>0.207</v>
+        <v>0.187</v>
       </c>
       <c r="O11" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="P11" t="s">
         <v>77</v>
@@ -3701,7 +3710,7 @@
         <v>80</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44419</v>
+        <v>44427</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -3711,31 +3720,31 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H12" t="n">
-        <v>7463902</v>
+        <v>7603034</v>
       </c>
       <c r="I12" t="n">
-        <v>789.888</v>
+        <v>804.612</v>
       </c>
       <c r="J12" t="n">
-        <v>20129</v>
+        <v>20457</v>
       </c>
       <c r="K12" t="n">
-        <v>2.13</v>
+        <v>2.165</v>
       </c>
       <c r="L12" t="n">
-        <v>16682</v>
+        <v>17564</v>
       </c>
       <c r="M12" t="n">
-        <v>1.765</v>
+        <v>1.859</v>
       </c>
       <c r="N12" t="n">
-        <v>0.059</v>
+        <v>0.063</v>
       </c>
       <c r="O12" t="n">
-        <v>16.8</v>
+        <v>15.8</v>
       </c>
       <c r="P12" t="s">
         <v>83</v>
@@ -3758,7 +3767,7 @@
         <v>87</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44423</v>
+        <v>44426</v>
       </c>
       <c r="D13" t="s">
         <v>88</v>
@@ -3768,31 +3777,31 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H13" t="n">
-        <v>18051588</v>
+        <v>18193868</v>
       </c>
       <c r="I13" t="n">
-        <v>1557.566</v>
+        <v>1569.842</v>
       </c>
       <c r="J13" t="n">
-        <v>25207</v>
+        <v>45218</v>
       </c>
       <c r="K13" t="n">
-        <v>2.175</v>
+        <v>3.902</v>
       </c>
       <c r="L13" t="n">
-        <v>49941</v>
+        <v>49342</v>
       </c>
       <c r="M13" t="n">
-        <v>4.309</v>
+        <v>4.257</v>
       </c>
       <c r="N13" t="n">
-        <v>0.042</v>
+        <v>0.044</v>
       </c>
       <c r="O13" t="n">
-        <v>23.8</v>
+        <v>22.7</v>
       </c>
       <c r="P13" t="s">
         <v>90</v>
@@ -3815,7 +3824,7 @@
         <v>94</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="D14" t="s">
         <v>95</v>
@@ -3825,27 +3834,27 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H14" t="n">
-        <v>194029</v>
+        <v>202015</v>
       </c>
       <c r="I14" t="n">
-        <v>487.975</v>
+        <v>508.059</v>
       </c>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14" t="n">
-        <v>1028</v>
+        <v>1141</v>
       </c>
       <c r="M14" t="n">
-        <v>2.585</v>
+        <v>2.87</v>
       </c>
       <c r="N14" t="n">
-        <v>0.047</v>
+        <v>0.064</v>
       </c>
       <c r="O14" t="n">
-        <v>21.1</v>
+        <v>15.7</v>
       </c>
       <c r="P14" t="s">
         <v>96</v>
@@ -3966,7 +3975,7 @@
         <v>111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="D17" t="s">
         <v>112</v>
@@ -3976,31 +3985,31 @@
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="H17" t="n">
-        <v>2160529</v>
+        <v>2207227</v>
       </c>
       <c r="I17" t="n">
-        <v>185.087</v>
+        <v>189.088</v>
       </c>
       <c r="J17" t="n">
-        <v>8850</v>
+        <v>8445</v>
       </c>
       <c r="K17" t="n">
-        <v>0.758</v>
+        <v>0.723</v>
       </c>
       <c r="L17" t="n">
-        <v>6050</v>
+        <v>6671</v>
       </c>
       <c r="M17" t="n">
-        <v>0.518</v>
+        <v>0.571</v>
       </c>
       <c r="N17" t="n">
-        <v>0.098</v>
+        <v>0.09</v>
       </c>
       <c r="O17" t="n">
-        <v>10.2</v>
+        <v>11.1</v>
       </c>
       <c r="P17" t="s">
         <v>36</v>
@@ -4023,7 +4032,7 @@
         <v>116</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="D18" t="s">
         <v>117</v>
@@ -4033,27 +4042,31 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="H18" t="n">
-        <v>1103356</v>
+        <v>1111191</v>
       </c>
       <c r="I18" t="n">
-        <v>336.305</v>
-      </c>
-      <c r="J18"/>
-      <c r="K18"/>
+        <v>338.694</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2312</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.705</v>
+      </c>
       <c r="L18" t="n">
-        <v>2166</v>
+        <v>2249</v>
       </c>
       <c r="M18" t="n">
-        <v>0.66</v>
+        <v>0.686</v>
       </c>
       <c r="N18" t="n">
-        <v>0.083</v>
+        <v>0.115</v>
       </c>
       <c r="O18" t="n">
-        <v>12.1</v>
+        <v>8.7</v>
       </c>
       <c r="P18" t="s">
         <v>118</v>
@@ -4121,7 +4134,7 @@
         <v>127</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -4131,21 +4144,21 @@
       </c>
       <c r="F20"/>
       <c r="G20" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H20" t="n">
-        <v>3903521</v>
+        <v>3966443</v>
       </c>
       <c r="I20" t="n">
-        <v>561.783</v>
+        <v>570.839</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20" t="n">
-        <v>18318</v>
+        <v>19386</v>
       </c>
       <c r="M20" t="n">
-        <v>2.636</v>
+        <v>2.79</v>
       </c>
       <c r="N20"/>
       <c r="O20"/>
@@ -4284,7 +4297,7 @@
         <v>143</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="D23" t="s">
         <v>139</v>
@@ -4294,31 +4307,31 @@
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="H23" t="n">
-        <v>39453066</v>
+        <v>39653674</v>
       </c>
       <c r="I23" t="n">
-        <v>1045.332</v>
+        <v>1050.647</v>
       </c>
       <c r="J23" t="n">
-        <v>122418</v>
+        <v>76230</v>
       </c>
       <c r="K23" t="n">
-        <v>3.244</v>
+        <v>2.02</v>
       </c>
       <c r="L23" t="n">
-        <v>61233</v>
+        <v>64931</v>
       </c>
       <c r="M23" t="n">
-        <v>1.622</v>
+        <v>1.72</v>
       </c>
       <c r="N23" t="n">
-        <v>0.032</v>
+        <v>0.034</v>
       </c>
       <c r="O23" t="n">
-        <v>30.8</v>
+        <v>29</v>
       </c>
       <c r="P23" t="s">
         <v>140</v>
@@ -4341,7 +4354,7 @@
         <v>146</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44422</v>
+        <v>44425</v>
       </c>
       <c r="D24" t="s">
         <v>147</v>
@@ -4351,15 +4364,15 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24" t="n">
-        <v>1131</v>
+        <v>1532</v>
       </c>
       <c r="K24" t="n">
-        <v>2.034</v>
+        <v>2.755</v>
       </c>
       <c r="L24"/>
       <c r="M24"/>
@@ -4386,7 +4399,7 @@
         <v>152</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="D25" t="s">
         <v>153</v>
@@ -4396,31 +4409,31 @@
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="H25" t="n">
-        <v>19287869</v>
+        <v>19421472</v>
       </c>
       <c r="I25" t="n">
-        <v>1008.98</v>
+        <v>1015.969</v>
       </c>
       <c r="J25" t="n">
-        <v>55843</v>
+        <v>68052</v>
       </c>
       <c r="K25" t="n">
-        <v>2.921</v>
+        <v>3.56</v>
       </c>
       <c r="L25" t="n">
-        <v>52652</v>
+        <v>53303</v>
       </c>
       <c r="M25" t="n">
-        <v>2.754</v>
+        <v>2.788</v>
       </c>
       <c r="N25" t="n">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="O25" t="n">
-        <v>65.6</v>
+        <v>73.2</v>
       </c>
       <c r="P25" t="s">
         <v>155</v>
@@ -4488,7 +4501,7 @@
         <v>165</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44423</v>
+        <v>44427</v>
       </c>
       <c r="D27" t="s">
         <v>166</v>
@@ -4498,31 +4511,31 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="H27" t="n">
-        <v>23364574</v>
+        <v>23532461</v>
       </c>
       <c r="I27" t="n">
-        <v>459.183</v>
+        <v>462.483</v>
       </c>
       <c r="J27" t="n">
-        <v>63692</v>
+        <v>56605</v>
       </c>
       <c r="K27" t="n">
-        <v>1.252</v>
+        <v>1.112</v>
       </c>
       <c r="L27" t="n">
-        <v>55957</v>
+        <v>50486</v>
       </c>
       <c r="M27" t="n">
-        <v>1.1</v>
+        <v>0.992</v>
       </c>
       <c r="N27" t="n">
-        <v>0.09</v>
+        <v>0.085</v>
       </c>
       <c r="O27" t="n">
-        <v>11.1</v>
+        <v>11.8</v>
       </c>
       <c r="P27" t="s">
         <v>167</v>
@@ -4545,7 +4558,7 @@
         <v>171</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44420</v>
+        <v>44424</v>
       </c>
       <c r="D28" t="s">
         <v>172</v>
@@ -4555,31 +4568,31 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H28" t="n">
-        <v>1550945</v>
+        <v>1577767</v>
       </c>
       <c r="I28" t="n">
-        <v>304.458</v>
+        <v>309.724</v>
       </c>
       <c r="J28" t="n">
-        <v>8576</v>
+        <v>4357</v>
       </c>
       <c r="K28" t="n">
-        <v>1.684</v>
+        <v>0.855</v>
       </c>
       <c r="L28" t="n">
-        <v>7064</v>
+        <v>7530</v>
       </c>
       <c r="M28" t="n">
-        <v>1.387</v>
+        <v>1.478</v>
       </c>
       <c r="N28" t="n">
-        <v>0.19</v>
+        <v>0.178</v>
       </c>
       <c r="O28" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="P28" t="s">
         <v>173</v>
@@ -4602,7 +4615,7 @@
         <v>176</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44420</v>
+        <v>44426</v>
       </c>
       <c r="D29" t="s">
         <v>177</v>
@@ -4612,31 +4625,31 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="H29" t="n">
-        <v>826678</v>
+        <v>847957</v>
       </c>
       <c r="I29" t="n">
-        <v>31.339</v>
+        <v>32.146</v>
       </c>
       <c r="J29" t="n">
-        <v>4379</v>
+        <v>4241</v>
       </c>
       <c r="K29" t="n">
-        <v>0.166</v>
+        <v>0.161</v>
       </c>
       <c r="L29" t="n">
-        <v>3523</v>
+        <v>3665</v>
       </c>
       <c r="M29" t="n">
-        <v>0.134</v>
+        <v>0.139</v>
       </c>
       <c r="N29" t="n">
-        <v>0.042</v>
+        <v>0.053</v>
       </c>
       <c r="O29" t="n">
-        <v>23.9</v>
+        <v>18.9</v>
       </c>
       <c r="P29" t="s">
         <v>178</v>
@@ -4659,7 +4672,7 @@
         <v>182</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="D30" t="s">
         <v>183</v>
@@ -4669,21 +4682,25 @@
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H30" t="n">
-        <v>2417389</v>
+        <v>2447178</v>
       </c>
       <c r="I30" t="n">
-        <v>588.85</v>
-      </c>
-      <c r="J30"/>
-      <c r="K30"/>
+        <v>596.107</v>
+      </c>
+      <c r="J30" t="n">
+        <v>9948</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.423</v>
+      </c>
       <c r="L30" t="n">
-        <v>7604</v>
+        <v>8383</v>
       </c>
       <c r="M30" t="n">
-        <v>1.852</v>
+        <v>2.042</v>
       </c>
       <c r="N30"/>
       <c r="O30"/>
@@ -4824,7 +4841,7 @@
         <v>199</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="D33" t="s">
         <v>200</v>
@@ -4834,21 +4851,21 @@
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33" t="n">
-        <v>94598</v>
+        <v>90885</v>
       </c>
       <c r="K33" t="n">
-        <v>8.834</v>
+        <v>8.487</v>
       </c>
       <c r="L33" t="n">
-        <v>100317</v>
+        <v>98008</v>
       </c>
       <c r="M33" t="n">
-        <v>9.368</v>
+        <v>9.152</v>
       </c>
       <c r="N33" t="n">
         <v>0.002</v>
@@ -4877,7 +4894,7 @@
         <v>203</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="D34" t="s">
         <v>204</v>
@@ -4887,27 +4904,27 @@
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34" t="n">
-        <v>2528</v>
+        <v>2415</v>
       </c>
       <c r="K34" t="n">
-        <v>0.028</v>
+        <v>0.027</v>
       </c>
       <c r="L34" t="n">
-        <v>2301</v>
+        <v>1888</v>
       </c>
       <c r="M34" t="n">
-        <v>0.026</v>
+        <v>0.021</v>
       </c>
       <c r="N34" t="n">
-        <v>0.102</v>
+        <v>0.09</v>
       </c>
       <c r="O34" t="n">
-        <v>9.8</v>
+        <v>11.1</v>
       </c>
       <c r="P34" t="s">
         <v>205</v>
@@ -4930,7 +4947,7 @@
         <v>209</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44423</v>
+        <v>44426</v>
       </c>
       <c r="D35" t="s">
         <v>210</v>
@@ -4940,31 +4957,31 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="H35" t="n">
-        <v>38769412</v>
+        <v>38964678</v>
       </c>
       <c r="I35" t="n">
-        <v>6693.379</v>
+        <v>6727.091</v>
       </c>
       <c r="J35" t="n">
-        <v>39326</v>
+        <v>40586</v>
       </c>
       <c r="K35" t="n">
-        <v>6.789</v>
+        <v>7.007</v>
       </c>
       <c r="L35" t="n">
-        <v>55498</v>
+        <v>59547</v>
       </c>
       <c r="M35" t="n">
-        <v>9.582</v>
+        <v>10.281</v>
       </c>
       <c r="N35" t="n">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="O35" t="n">
-        <v>55</v>
+        <v>59.5</v>
       </c>
       <c r="P35" t="s">
         <v>211</v>
@@ -4987,7 +5004,7 @@
         <v>215</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44417</v>
+        <v>44424</v>
       </c>
       <c r="D36" t="s">
         <v>216</v>
@@ -4997,27 +5014,27 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H36" t="n">
-        <v>1875579</v>
+        <v>1910033</v>
       </c>
       <c r="I36" t="n">
-        <v>172.898</v>
+        <v>176.074</v>
       </c>
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36" t="n">
-        <v>4177</v>
+        <v>4922</v>
       </c>
       <c r="M36" t="n">
-        <v>0.385</v>
+        <v>0.454</v>
       </c>
       <c r="N36" t="n">
-        <v>0.067</v>
+        <v>0.053</v>
       </c>
       <c r="O36" t="n">
-        <v>14.9</v>
+        <v>18.8</v>
       </c>
       <c r="P36" t="s">
         <v>217</v>
@@ -5040,7 +5057,7 @@
         <v>221</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="D37" t="s">
         <v>222</v>
@@ -5052,27 +5069,31 @@
         <v>224</v>
       </c>
       <c r="G37" t="n">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H37" t="n">
-        <v>1624890</v>
+        <v>1628513</v>
       </c>
       <c r="I37" t="n">
-        <v>92.098</v>
-      </c>
-      <c r="J37"/>
-      <c r="K37"/>
+        <v>92.303</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3623</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.205</v>
+      </c>
       <c r="L37" t="n">
-        <v>2628</v>
+        <v>2597</v>
       </c>
       <c r="M37" t="n">
-        <v>0.149</v>
+        <v>0.147</v>
       </c>
       <c r="N37" t="n">
-        <v>0.149</v>
+        <v>0.188</v>
       </c>
       <c r="O37" t="n">
-        <v>6.7</v>
+        <v>5.3</v>
       </c>
       <c r="P37" t="s">
         <v>225</v>
@@ -5152,7 +5173,7 @@
         <v>235</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="D39" t="s">
         <v>236</v>
@@ -5162,21 +5183,21 @@
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H39" t="n">
-        <v>185478</v>
+        <v>189186</v>
       </c>
       <c r="I39" t="n">
-        <v>132.202</v>
+        <v>134.845</v>
       </c>
       <c r="J39"/>
       <c r="K39"/>
       <c r="L39" t="n">
-        <v>347</v>
+        <v>728</v>
       </c>
       <c r="M39" t="n">
-        <v>0.247</v>
+        <v>0.519</v>
       </c>
       <c r="N39"/>
       <c r="O39"/>
@@ -5201,7 +5222,7 @@
         <v>241</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="D40" t="s">
         <v>242</v>
@@ -5211,31 +5232,31 @@
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="H40" t="n">
-        <v>1700677</v>
+        <v>1714002</v>
       </c>
       <c r="I40" t="n">
-        <v>1282.041</v>
+        <v>1292.086</v>
       </c>
       <c r="J40" t="n">
-        <v>4982</v>
+        <v>4444</v>
       </c>
       <c r="K40" t="n">
-        <v>3.756</v>
+        <v>3.35</v>
       </c>
       <c r="L40" t="n">
-        <v>5281</v>
+        <v>4237</v>
       </c>
       <c r="M40" t="n">
-        <v>3.981</v>
+        <v>3.194</v>
       </c>
       <c r="N40" t="n">
-        <v>0.052</v>
+        <v>0.065</v>
       </c>
       <c r="O40" t="n">
-        <v>19.1</v>
+        <v>15.4</v>
       </c>
       <c r="P40" t="s">
         <v>243</v>
@@ -5258,7 +5279,7 @@
         <v>246</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="D41" t="s">
         <v>247</v>
@@ -5268,31 +5289,31 @@
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="H41" t="n">
-        <v>3120043</v>
+        <v>3142116</v>
       </c>
       <c r="I41" t="n">
-        <v>27.139</v>
+        <v>27.331</v>
       </c>
       <c r="J41" t="n">
-        <v>5173</v>
+        <v>7149</v>
       </c>
       <c r="K41" t="n">
-        <v>0.045</v>
+        <v>0.062</v>
       </c>
       <c r="L41" t="n">
-        <v>6436</v>
+        <v>6485</v>
       </c>
       <c r="M41" t="n">
         <v>0.056</v>
       </c>
       <c r="N41" t="n">
-        <v>0.121</v>
+        <v>0.122</v>
       </c>
       <c r="O41" t="n">
-        <v>8.3</v>
+        <v>8.2</v>
       </c>
       <c r="P41" t="s">
         <v>248</v>
@@ -5372,7 +5393,7 @@
         <v>256</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44423</v>
+        <v>44426</v>
       </c>
       <c r="D43" t="s">
         <v>257</v>
@@ -5382,31 +5403,31 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="H43" t="n">
-        <v>6227325</v>
+        <v>6301305</v>
       </c>
       <c r="I43" t="n">
-        <v>1123.92</v>
+        <v>1137.272</v>
       </c>
       <c r="J43" t="n">
-        <v>9705</v>
+        <v>25000</v>
       </c>
       <c r="K43" t="n">
-        <v>1.752</v>
+        <v>4.512</v>
       </c>
       <c r="L43" t="n">
-        <v>18555</v>
+        <v>19317</v>
       </c>
       <c r="M43" t="n">
-        <v>3.349</v>
+        <v>3.486</v>
       </c>
       <c r="N43" t="n">
-        <v>0.041</v>
+        <v>0.037</v>
       </c>
       <c r="O43" t="n">
-        <v>24.4</v>
+        <v>26.8</v>
       </c>
       <c r="P43" t="s">
         <v>259</v>
@@ -5429,7 +5450,7 @@
         <v>262</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>44421</v>
+        <v>44424</v>
       </c>
       <c r="D44" t="s">
         <v>263</v>
@@ -5439,27 +5460,27 @@
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44" t="n">
-        <v>994320</v>
+        <v>973351</v>
       </c>
       <c r="K44" t="n">
-        <v>14.717</v>
+        <v>14.406</v>
       </c>
       <c r="L44" t="n">
-        <v>742492</v>
+        <v>781128</v>
       </c>
       <c r="M44" t="n">
-        <v>10.989</v>
+        <v>11.561</v>
       </c>
       <c r="N44" t="n">
-        <v>0.035</v>
+        <v>0.034</v>
       </c>
       <c r="O44" t="n">
-        <v>28.6</v>
+        <v>29.4</v>
       </c>
       <c r="P44" t="s">
         <v>264</v>
@@ -5482,7 +5503,7 @@
         <v>267</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="D45" t="s">
         <v>268</v>
@@ -5492,21 +5513,21 @@
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H45" t="n">
-        <v>1035943</v>
+        <v>1046805</v>
       </c>
       <c r="I45" t="n">
-        <v>465.44</v>
+        <v>470.32</v>
       </c>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45" t="n">
-        <v>3381</v>
+        <v>2827</v>
       </c>
       <c r="M45" t="n">
-        <v>1.519</v>
+        <v>1.27</v>
       </c>
       <c r="N45"/>
       <c r="O45"/>
@@ -5531,7 +5552,7 @@
         <v>274</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>44325</v>
+        <v>44425</v>
       </c>
       <c r="D46" t="s">
         <v>275</v>
@@ -5541,166 +5562,162 @@
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>317</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>66537</v>
+        <v>93657</v>
       </c>
       <c r="I46" t="n">
-        <v>27.533</v>
+        <v>38.755</v>
       </c>
       <c r="J46" t="n">
-        <v>567</v>
+        <v>1003</v>
       </c>
       <c r="K46" t="n">
-        <v>0.235</v>
-      </c>
-      <c r="L46" t="n">
-        <v>169</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="O46" t="n">
-        <v>42.2</v>
-      </c>
+        <v>0.415</v>
+      </c>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
       <c r="P46" t="s">
         <v>276</v>
       </c>
       <c r="Q46" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="R46" t="s">
         <v>108</v>
       </c>
       <c r="S46" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B47" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="D47" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E47" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H47" t="n">
-        <v>7198000</v>
+        <v>7515000</v>
       </c>
       <c r="I47" t="n">
-        <v>1804.383</v>
-      </c>
-      <c r="J47"/>
-      <c r="K47"/>
+        <v>1883.848</v>
+      </c>
+      <c r="J47" t="n">
+        <v>57000</v>
+      </c>
+      <c r="K47" t="n">
+        <v>14.289</v>
+      </c>
       <c r="L47" t="n">
-        <v>42571</v>
+        <v>45286</v>
       </c>
       <c r="M47" t="n">
-        <v>10.672</v>
+        <v>11.352</v>
       </c>
       <c r="N47" t="n">
-        <v>0.095</v>
+        <v>0.111</v>
       </c>
       <c r="O47" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="P47" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q47" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="R47" t="s">
         <v>24</v>
       </c>
       <c r="S47" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B48" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>44416</v>
+        <v>44423</v>
       </c>
       <c r="D48" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E48" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H48" t="n">
-        <v>68260213</v>
+        <v>68790183</v>
       </c>
       <c r="I48" t="n">
-        <v>814.717</v>
+        <v>821.043</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48" t="n">
-        <v>84058</v>
+        <v>79885</v>
       </c>
       <c r="M48" t="n">
-        <v>1.003</v>
+        <v>0.953</v>
       </c>
       <c r="N48" t="n">
-        <v>0.039</v>
+        <v>0.06</v>
       </c>
       <c r="O48" t="n">
-        <v>25.6</v>
+        <v>16.7</v>
       </c>
       <c r="P48" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q48" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="R48" t="s">
         <v>44</v>
       </c>
       <c r="S48" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B49" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C49" s="1" t="n">
         <v>44395</v>
       </c>
       <c r="D49" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E49" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F49"/>
       <c r="G49" t="n">
@@ -5731,147 +5748,147 @@
         <v>30.1</v>
       </c>
       <c r="P49" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q49" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="R49" t="s">
         <v>108</v>
       </c>
       <c r="S49" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B50" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44420</v>
+        <v>44427</v>
       </c>
       <c r="D50" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E50" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="H50" t="n">
-        <v>13837533</v>
+        <v>14451763</v>
       </c>
       <c r="I50" t="n">
-        <v>1327.589</v>
+        <v>1386.519</v>
       </c>
       <c r="J50" t="n">
-        <v>101661</v>
+        <v>102298</v>
       </c>
       <c r="K50" t="n">
-        <v>9.753</v>
+        <v>9.815</v>
       </c>
       <c r="L50" t="n">
-        <v>88418</v>
+        <v>87747</v>
       </c>
       <c r="M50" t="n">
-        <v>8.483</v>
+        <v>8.419</v>
       </c>
       <c r="N50" t="n">
-        <v>0.035</v>
+        <v>0.036</v>
       </c>
       <c r="O50" t="n">
-        <v>28.4</v>
+        <v>27.9</v>
       </c>
       <c r="P50" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q50" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="R50" t="s">
         <v>108</v>
       </c>
       <c r="S50" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B51" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>44423</v>
+        <v>44426</v>
       </c>
       <c r="D51" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E51" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="H51" t="n">
-        <v>2020393</v>
+        <v>2059534</v>
       </c>
       <c r="I51" t="n">
-        <v>112.773</v>
+        <v>114.958</v>
       </c>
       <c r="J51" t="n">
-        <v>2318</v>
+        <v>15284</v>
       </c>
       <c r="K51" t="n">
-        <v>0.129</v>
+        <v>0.853</v>
       </c>
       <c r="L51" t="n">
-        <v>9692</v>
+        <v>9945</v>
       </c>
       <c r="M51" t="n">
-        <v>0.541</v>
+        <v>0.555</v>
       </c>
       <c r="N51" t="n">
-        <v>0.332</v>
+        <v>0.334</v>
       </c>
       <c r="O51" t="n">
         <v>3</v>
       </c>
       <c r="P51" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q51" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="R51" t="s">
         <v>31</v>
       </c>
       <c r="S51" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B52" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C52" s="1" t="n">
         <v>44418</v>
       </c>
       <c r="D52" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E52" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
@@ -5898,766 +5915,770 @@
         <v>16666.7</v>
       </c>
       <c r="P52" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q52" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="R52" t="s">
         <v>44</v>
       </c>
       <c r="S52" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B53" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="D53" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E53" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F53" t="s">
+        <v>322</v>
+      </c>
+      <c r="G53" t="n">
+        <v>511</v>
+      </c>
+      <c r="H53" t="n">
+        <v>6016847</v>
+      </c>
+      <c r="I53" t="n">
+        <v>622.839</v>
+      </c>
+      <c r="J53" t="n">
+        <v>10125</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1.048</v>
+      </c>
+      <c r="L53" t="n">
+        <v>7447</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="O53" t="n">
+        <v>91.6</v>
+      </c>
+      <c r="P53" t="s">
         <v>321</v>
       </c>
-      <c r="G53" t="n">
-        <v>508</v>
-      </c>
-      <c r="H53" t="n">
-        <v>5994248</v>
-      </c>
-      <c r="I53" t="n">
-        <v>620.5</v>
-      </c>
-      <c r="J53" t="n">
-        <v>21092</v>
-      </c>
-      <c r="K53" t="n">
-        <v>2.183</v>
-      </c>
-      <c r="L53" t="n">
-        <v>7151</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="O53" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="P53" t="s">
-        <v>320</v>
-      </c>
       <c r="Q53" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="R53" t="s">
         <v>108</v>
       </c>
       <c r="S53" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B54" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>44423</v>
+        <v>44426</v>
       </c>
       <c r="D54" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E54" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="H54" t="n">
-        <v>541158</v>
+        <v>551511</v>
       </c>
       <c r="I54" t="n">
-        <v>1585.811</v>
+        <v>1616.149</v>
       </c>
       <c r="J54" t="n">
-        <v>2385</v>
+        <v>3349</v>
       </c>
       <c r="K54" t="n">
-        <v>6.989</v>
+        <v>9.814</v>
       </c>
       <c r="L54" t="n">
-        <v>3009</v>
+        <v>3061</v>
       </c>
       <c r="M54" t="n">
-        <v>8.818</v>
+        <v>8.97</v>
       </c>
       <c r="N54"/>
       <c r="O54"/>
       <c r="P54" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q54" t="s">
         <v>327</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>326</v>
       </c>
       <c r="R54" t="s">
         <v>44</v>
       </c>
       <c r="S54" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B55" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="D55" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E55" t="s">
+        <v>333</v>
+      </c>
+      <c r="F55" t="s">
+        <v>334</v>
+      </c>
+      <c r="G55" t="n">
+        <v>508</v>
+      </c>
+      <c r="H55" t="n">
+        <v>498427083</v>
+      </c>
+      <c r="I55" t="n">
+        <v>361.178</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1797559</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1.303</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1910082</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1.384</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="O55" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="P55" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q55" t="s">
         <v>332</v>
-      </c>
-      <c r="F55" t="s">
-        <v>333</v>
-      </c>
-      <c r="G55" t="n">
-        <v>507</v>
-      </c>
-      <c r="H55" t="n">
-        <v>496629524</v>
-      </c>
-      <c r="I55" t="n">
-        <v>359.875</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1823872</v>
-      </c>
-      <c r="K55" t="n">
-        <v>1.322</v>
-      </c>
-      <c r="L55" t="n">
-        <v>1907283</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1.382</v>
-      </c>
-      <c r="N55"/>
-      <c r="O55"/>
-      <c r="P55" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>331</v>
       </c>
       <c r="R55" t="s">
         <v>108</v>
       </c>
       <c r="S55" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B56" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44424</v>
+        <v>44426</v>
       </c>
       <c r="D56" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E56" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H56" t="n">
-        <v>19890644</v>
+        <v>20070696</v>
       </c>
       <c r="I56" t="n">
-        <v>72.72</v>
+        <v>73.378</v>
       </c>
       <c r="J56"/>
       <c r="K56"/>
       <c r="L56" t="n">
-        <v>122700</v>
+        <v>108192</v>
       </c>
       <c r="M56" t="n">
-        <v>0.449</v>
+        <v>0.396</v>
       </c>
       <c r="N56" t="n">
-        <v>0.215</v>
+        <v>0.21</v>
       </c>
       <c r="O56" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="P56" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q56" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="R56" t="s">
         <v>31</v>
       </c>
       <c r="S56" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B57" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44422</v>
+        <v>44428</v>
       </c>
       <c r="D57" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E57" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H57" t="n">
-        <v>27078261</v>
+        <v>27666082</v>
       </c>
       <c r="I57" t="n">
-        <v>322.387</v>
+        <v>329.386</v>
       </c>
       <c r="J57" t="n">
-        <v>93631</v>
+        <v>86429</v>
       </c>
       <c r="K57" t="n">
-        <v>1.115</v>
+        <v>1.029</v>
       </c>
       <c r="L57" t="n">
-        <v>96984</v>
+        <v>97350</v>
       </c>
       <c r="M57" t="n">
-        <v>1.155</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0.398</v>
-      </c>
-      <c r="O57" t="n">
-        <v>2.5</v>
-      </c>
+        <v>1.159</v>
+      </c>
+      <c r="N57"/>
+      <c r="O57"/>
       <c r="P57" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q57" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="R57" t="s">
         <v>44</v>
       </c>
       <c r="S57" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B58" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44419</v>
+        <v>44427</v>
       </c>
       <c r="D58" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E58" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="H58" t="n">
-        <v>13586857</v>
+        <v>13912862</v>
       </c>
       <c r="I58" t="n">
-        <v>337.792</v>
+        <v>345.897</v>
       </c>
       <c r="J58" t="n">
-        <v>41613</v>
+        <v>40653</v>
       </c>
       <c r="K58" t="n">
-        <v>1.035</v>
+        <v>1.011</v>
       </c>
       <c r="L58" t="n">
-        <v>43848</v>
+        <v>40077</v>
       </c>
       <c r="M58" t="n">
-        <v>1.09</v>
+        <v>0.996</v>
       </c>
       <c r="N58" t="n">
-        <v>0.221</v>
+        <v>0.207</v>
       </c>
       <c r="O58" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="P58" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q58" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="R58" t="s">
         <v>108</v>
       </c>
       <c r="S58" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B59" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44329</v>
+        <v>44427</v>
       </c>
       <c r="D59" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E59" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>422</v>
+        <v>520</v>
       </c>
       <c r="H59" t="n">
-        <v>4728904</v>
+        <v>6460831</v>
       </c>
       <c r="I59" t="n">
-        <v>957.695</v>
+        <v>1308.444</v>
       </c>
       <c r="J59" t="n">
-        <v>19701</v>
+        <v>21024</v>
       </c>
       <c r="K59" t="n">
-        <v>3.99</v>
+        <v>4.258</v>
       </c>
       <c r="L59" t="n">
-        <v>18459</v>
+        <v>20683</v>
       </c>
       <c r="M59" t="n">
-        <v>3.738</v>
+        <v>4.189</v>
       </c>
       <c r="N59" t="n">
-        <v>0.023</v>
+        <v>0.085</v>
       </c>
       <c r="O59" t="n">
-        <v>43.4</v>
+        <v>11.8</v>
       </c>
       <c r="P59" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q59" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="R59" t="s">
         <v>44</v>
       </c>
       <c r="S59" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B60" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="D60" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E60" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="H60" t="n">
-        <v>21286782</v>
+        <v>21734206</v>
       </c>
       <c r="I60" t="n">
-        <v>2459.324</v>
+        <v>2511.016</v>
       </c>
       <c r="J60" t="n">
-        <v>152604</v>
+        <v>146296</v>
       </c>
       <c r="K60" t="n">
-        <v>17.631</v>
+        <v>16.902</v>
       </c>
       <c r="L60" t="n">
-        <v>122949</v>
+        <v>129487</v>
       </c>
       <c r="M60" t="n">
-        <v>14.205</v>
+        <v>14.96</v>
       </c>
       <c r="N60" t="n">
-        <v>0.048</v>
+        <v>0.051</v>
       </c>
       <c r="O60" t="n">
-        <v>20.7</v>
+        <v>19.8</v>
       </c>
       <c r="P60" t="s">
         <v>36</v>
       </c>
       <c r="Q60" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="R60" t="s">
         <v>44</v>
       </c>
       <c r="S60" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B61" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="D61" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E61" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F61" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G61" t="n">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="H61" t="n">
-        <v>31753974</v>
+        <v>31914369</v>
       </c>
       <c r="I61" t="n">
-        <v>525.19</v>
+        <v>527.843</v>
       </c>
       <c r="J61" t="n">
-        <v>21059</v>
+        <v>52577</v>
       </c>
       <c r="K61" t="n">
-        <v>0.348</v>
+        <v>0.87</v>
       </c>
       <c r="L61" t="n">
-        <v>48982</v>
+        <v>48255</v>
       </c>
       <c r="M61" t="n">
-        <v>0.81</v>
+        <v>0.798</v>
       </c>
       <c r="N61" t="n">
-        <v>0.128</v>
+        <v>0.129</v>
       </c>
       <c r="O61" t="n">
         <v>7.8</v>
       </c>
       <c r="P61" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q61" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="R61" t="s">
         <v>31</v>
       </c>
       <c r="S61" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B62" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44423</v>
+        <v>44427</v>
       </c>
       <c r="D62" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E62" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F62" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G62" t="n">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="H62" t="n">
-        <v>80606903</v>
+        <v>81351951</v>
       </c>
       <c r="I62" t="n">
-        <v>1333.187</v>
+        <v>1345.509</v>
       </c>
       <c r="J62" t="n">
-        <v>160870</v>
+        <v>206531</v>
       </c>
       <c r="K62" t="n">
-        <v>2.661</v>
+        <v>3.416</v>
       </c>
       <c r="L62" t="n">
-        <v>204571</v>
+        <v>197916</v>
       </c>
       <c r="M62" t="n">
-        <v>3.383</v>
+        <v>3.273</v>
       </c>
       <c r="N62" t="n">
         <v>0.031</v>
       </c>
       <c r="O62" t="n">
-        <v>32.4</v>
+        <v>31.8</v>
       </c>
       <c r="P62" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q62" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="R62" t="s">
         <v>44</v>
       </c>
       <c r="S62" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B63" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44423</v>
+        <v>44426</v>
       </c>
       <c r="D63" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E63" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H63" t="n">
-        <v>520791</v>
+        <v>526075</v>
       </c>
       <c r="I63" t="n">
-        <v>175.874</v>
-      </c>
-      <c r="J63"/>
-      <c r="K63"/>
+        <v>177.658</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2184</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.738</v>
+      </c>
       <c r="L63" t="n">
-        <v>1564</v>
+        <v>1768</v>
       </c>
       <c r="M63" t="n">
-        <v>0.528</v>
+        <v>0.597</v>
       </c>
       <c r="N63" t="n">
-        <v>0.282</v>
+        <v>0.29</v>
       </c>
       <c r="O63" t="n">
         <v>3.5</v>
       </c>
       <c r="P63" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q63" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="R63" t="s">
         <v>108</v>
       </c>
       <c r="S63" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B64" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="D64" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E64" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="H64" t="n">
-        <v>19000346</v>
+        <v>19482275</v>
       </c>
       <c r="I64" t="n">
-        <v>150.228</v>
+        <v>154.039</v>
       </c>
       <c r="J64" t="n">
-        <v>104174</v>
+        <v>232366</v>
       </c>
       <c r="K64" t="n">
-        <v>0.824</v>
+        <v>1.837</v>
       </c>
       <c r="L64" t="n">
-        <v>107039</v>
+        <v>123563</v>
       </c>
       <c r="M64" t="n">
-        <v>0.846</v>
+        <v>0.977</v>
       </c>
       <c r="N64" t="n">
-        <v>0.158</v>
+        <v>0.165</v>
       </c>
       <c r="O64" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="P64" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q64" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="R64" t="s">
         <v>31</v>
       </c>
       <c r="S64" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B65" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="D65" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E65" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H65" t="n">
-        <v>8813260</v>
+        <v>8924446</v>
       </c>
       <c r="I65" t="n">
-        <v>863.779</v>
+        <v>874.676</v>
       </c>
       <c r="J65" t="n">
-        <v>30370</v>
+        <v>27749</v>
       </c>
       <c r="K65" t="n">
-        <v>2.977</v>
+        <v>2.72</v>
       </c>
       <c r="L65" t="n">
-        <v>23653</v>
+        <v>29880</v>
       </c>
       <c r="M65" t="n">
-        <v>2.318</v>
+        <v>2.929</v>
       </c>
       <c r="N65" t="n">
-        <v>0.039</v>
+        <v>0.033</v>
       </c>
       <c r="O65" t="n">
-        <v>25.3</v>
+        <v>30.6</v>
       </c>
       <c r="P65" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q65" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="R65" t="s">
         <v>44</v>
       </c>
       <c r="S65" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B66" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C66" s="1" t="n">
         <v>44355</v>
       </c>
       <c r="D66" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E66" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
@@ -6688,33 +6709,33 @@
         <v>33.4</v>
       </c>
       <c r="P66" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q66" t="s">
         <v>397</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>396</v>
       </c>
       <c r="R66" t="s">
         <v>44</v>
       </c>
       <c r="S66" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B67" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C67" s="1" t="n">
         <v>44320</v>
       </c>
       <c r="D67" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E67" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
@@ -6744,144 +6765,144 @@
         <v>36</v>
       </c>
       <c r="Q67" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="R67" t="s">
         <v>44</v>
       </c>
       <c r="S67" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B68" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>44423</v>
+        <v>44427</v>
       </c>
       <c r="D68" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E68" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H68" t="n">
-        <v>814832</v>
+        <v>846044</v>
       </c>
       <c r="I68" t="n">
-        <v>421.587</v>
+        <v>437.736</v>
       </c>
       <c r="J68" t="n">
-        <v>5646</v>
+        <v>11373</v>
       </c>
       <c r="K68" t="n">
-        <v>2.921</v>
+        <v>5.884</v>
       </c>
       <c r="L68" t="n">
-        <v>6905</v>
+        <v>7711</v>
       </c>
       <c r="M68" t="n">
-        <v>3.573</v>
+        <v>3.99</v>
       </c>
       <c r="N68" t="n">
-        <v>0.131</v>
+        <v>0.194</v>
       </c>
       <c r="O68" t="n">
-        <v>7.7</v>
+        <v>5.2</v>
       </c>
       <c r="P68" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q68" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="R68" t="s">
         <v>24</v>
       </c>
       <c r="S68" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B69" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>44420</v>
+        <v>44426</v>
       </c>
       <c r="D69" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E69" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="H69" t="n">
-        <v>3565742</v>
+        <v>3631090</v>
       </c>
       <c r="I69" t="n">
-        <v>834.958</v>
+        <v>850.26</v>
       </c>
       <c r="J69" t="n">
-        <v>12619</v>
+        <v>9900</v>
       </c>
       <c r="K69" t="n">
-        <v>2.955</v>
+        <v>2.318</v>
       </c>
       <c r="L69" t="n">
-        <v>13496</v>
+        <v>11138</v>
       </c>
       <c r="M69" t="n">
-        <v>3.16</v>
+        <v>2.608</v>
       </c>
       <c r="N69" t="n">
-        <v>0.04</v>
+        <v>0.032</v>
       </c>
       <c r="O69" t="n">
-        <v>25.2</v>
+        <v>31.3</v>
       </c>
       <c r="P69" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q69" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="R69" t="s">
         <v>44</v>
       </c>
       <c r="S69" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B70" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C70" s="1" t="n">
         <v>44383</v>
       </c>
       <c r="D70" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E70" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
@@ -6912,88 +6933,88 @@
         <v>41.5</v>
       </c>
       <c r="P70" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q70" t="s">
         <v>419</v>
       </c>
-      <c r="Q70" t="s">
-        <v>418</v>
-      </c>
       <c r="R70" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="S70" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B71" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="D71" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E71" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F71" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G71" t="n">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="H71" t="n">
-        <v>3212193</v>
+        <v>3237834</v>
       </c>
       <c r="I71" t="n">
-        <v>1702.995</v>
+        <v>1716.589</v>
       </c>
       <c r="J71" t="n">
-        <v>10234</v>
+        <v>9231</v>
       </c>
       <c r="K71" t="n">
-        <v>5.426</v>
+        <v>4.894</v>
       </c>
       <c r="L71" t="n">
-        <v>8207</v>
+        <v>8515</v>
       </c>
       <c r="M71" t="n">
-        <v>4.351</v>
+        <v>4.514</v>
       </c>
       <c r="N71"/>
       <c r="O71"/>
       <c r="P71" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q71" t="s">
         <v>425</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>424</v>
       </c>
       <c r="R71" t="s">
         <v>44</v>
       </c>
       <c r="S71" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B72" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C72" s="1" t="n">
         <v>44370</v>
       </c>
       <c r="D72" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E72" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
@@ -7016,306 +7037,306 @@
       <c r="N72"/>
       <c r="O72"/>
       <c r="P72" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q72" t="s">
         <v>431</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>430</v>
       </c>
       <c r="R72" t="s">
         <v>24</v>
       </c>
       <c r="S72" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B73" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44423</v>
+        <v>44427</v>
       </c>
       <c r="D73" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E73" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73" t="n">
-        <v>9610</v>
+        <v>9109</v>
       </c>
       <c r="K73" t="n">
-        <v>1.399</v>
+        <v>1.326</v>
       </c>
       <c r="L73"/>
       <c r="M73"/>
       <c r="N73"/>
       <c r="O73"/>
       <c r="P73" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q73" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="R73" t="s">
         <v>108</v>
       </c>
       <c r="S73" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B74" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>44422</v>
+        <v>44425</v>
       </c>
       <c r="D74" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E74" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="H74" t="n">
-        <v>59349</v>
+        <v>59666</v>
       </c>
       <c r="I74" t="n">
-        <v>1556.205</v>
+        <v>1564.517</v>
       </c>
       <c r="J74" t="n">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="K74" t="n">
-        <v>2.57</v>
+        <v>2.176</v>
       </c>
       <c r="L74" t="n">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="M74" t="n">
-        <v>3.487</v>
+        <v>3.304</v>
       </c>
       <c r="N74" t="n">
-        <v>0.069</v>
+        <v>0.088</v>
       </c>
       <c r="O74" t="n">
-        <v>14.5</v>
+        <v>11.4</v>
       </c>
       <c r="P74" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q74" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="R74" t="s">
         <v>44</v>
       </c>
       <c r="S74" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B75" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44420</v>
+        <v>44424</v>
       </c>
       <c r="D75" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E75" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="H75" t="n">
-        <v>4364220</v>
+        <v>4414399</v>
       </c>
       <c r="I75" t="n">
-        <v>1603.142</v>
+        <v>1621.575</v>
       </c>
       <c r="J75" t="n">
-        <v>14429</v>
+        <v>13674</v>
       </c>
       <c r="K75" t="n">
-        <v>5.3</v>
+        <v>5.023</v>
       </c>
       <c r="L75" t="n">
-        <v>13942</v>
+        <v>13788</v>
       </c>
       <c r="M75" t="n">
-        <v>5.121</v>
+        <v>5.065</v>
       </c>
       <c r="N75" t="n">
-        <v>0.04</v>
+        <v>0.043</v>
       </c>
       <c r="O75" t="n">
-        <v>25</v>
+        <v>23.3</v>
       </c>
       <c r="P75" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q75" t="s">
         <v>448</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>447</v>
       </c>
       <c r="R75" t="s">
         <v>44</v>
       </c>
       <c r="S75" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B76" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44422</v>
+        <v>44426</v>
       </c>
       <c r="D76" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E76" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="H76" t="n">
-        <v>3357318</v>
+        <v>3371442</v>
       </c>
       <c r="I76" t="n">
-        <v>5363.333</v>
+        <v>5385.897</v>
       </c>
       <c r="J76" t="n">
-        <v>4305</v>
+        <v>3702</v>
       </c>
       <c r="K76" t="n">
-        <v>6.877</v>
+        <v>5.914</v>
       </c>
       <c r="L76" t="n">
-        <v>4175</v>
+        <v>4349</v>
       </c>
       <c r="M76" t="n">
-        <v>6.67</v>
+        <v>6.948</v>
       </c>
       <c r="N76" t="n">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="O76" t="n">
-        <v>87.8</v>
+        <v>85.3</v>
       </c>
       <c r="P76" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q76" t="s">
         <v>453</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>452</v>
       </c>
       <c r="R76" t="s">
         <v>44</v>
       </c>
       <c r="S76" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B77" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>44419</v>
+        <v>44425</v>
       </c>
       <c r="D77" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E77" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H77" t="n">
-        <v>232478</v>
+        <v>235147</v>
       </c>
       <c r="I77" t="n">
-        <v>8.395</v>
+        <v>8.492</v>
       </c>
       <c r="J77" t="n">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="K77" t="n">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="L77" t="n">
-        <v>505</v>
+        <v>454</v>
       </c>
       <c r="M77" t="n">
-        <v>0.018</v>
+        <v>0.016</v>
       </c>
       <c r="N77" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="O77" t="n">
-        <v>33.3</v>
+        <v>99.3</v>
       </c>
       <c r="P77" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q77" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="R77" t="s">
         <v>44</v>
       </c>
       <c r="S77" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B78" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C78" s="1" t="n">
         <v>44400</v>
       </c>
       <c r="D78" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E78" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
@@ -7342,203 +7363,203 @@
         <v>3.1</v>
       </c>
       <c r="P78" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q78" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="R78" t="s">
         <v>108</v>
       </c>
       <c r="S78" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B79" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>44424</v>
+        <v>44426</v>
       </c>
       <c r="D79" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E79" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F79" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G79" t="n">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="H79" t="n">
-        <v>24045027</v>
+        <v>24389054</v>
       </c>
       <c r="I79" t="n">
-        <v>742.91</v>
+        <v>753.539</v>
       </c>
       <c r="J79" t="n">
-        <v>150590</v>
+        <v>165312</v>
       </c>
       <c r="K79" t="n">
-        <v>4.653</v>
+        <v>5.108</v>
       </c>
       <c r="L79" t="n">
-        <v>153362</v>
+        <v>157651</v>
       </c>
       <c r="M79" t="n">
-        <v>4.738</v>
+        <v>4.871</v>
       </c>
       <c r="N79" t="n">
-        <v>0.135</v>
+        <v>0.132</v>
       </c>
       <c r="O79" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="P79" t="s">
         <v>36</v>
       </c>
       <c r="Q79" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="R79" t="s">
         <v>31</v>
       </c>
       <c r="S79" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B80" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44420</v>
+        <v>44427</v>
       </c>
       <c r="D80" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E80" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="H80" t="n">
-        <v>1271880</v>
+        <v>1310121</v>
       </c>
       <c r="I80" t="n">
-        <v>2352.972</v>
+        <v>2423.717</v>
       </c>
       <c r="J80" t="n">
-        <v>5048</v>
+        <v>6750</v>
       </c>
       <c r="K80" t="n">
-        <v>9.339</v>
+        <v>12.487</v>
       </c>
       <c r="L80" t="n">
-        <v>5777</v>
+        <v>5463</v>
       </c>
       <c r="M80" t="n">
-        <v>10.687</v>
+        <v>10.107</v>
       </c>
       <c r="N80" t="n">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="O80" t="n">
-        <v>49.6</v>
+        <v>45.3</v>
       </c>
       <c r="P80" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Q80" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="R80" t="s">
         <v>108</v>
       </c>
       <c r="S80" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B81" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>44420</v>
+        <v>44427</v>
       </c>
       <c r="D81" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E81" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="H81" t="n">
-        <v>1129787</v>
+        <v>1152894</v>
       </c>
       <c r="I81" t="n">
-        <v>2558.748</v>
+        <v>2611.081</v>
       </c>
       <c r="J81" t="n">
-        <v>3417</v>
+        <v>3496</v>
       </c>
       <c r="K81" t="n">
-        <v>7.739</v>
+        <v>7.918</v>
       </c>
       <c r="L81" t="n">
-        <v>3317</v>
+        <v>3301</v>
       </c>
       <c r="M81" t="n">
-        <v>7.512</v>
+        <v>7.476</v>
       </c>
       <c r="N81" t="n">
-        <v>0.018</v>
+        <v>0.022</v>
       </c>
       <c r="O81" t="n">
-        <v>54.9</v>
+        <v>45.2</v>
       </c>
       <c r="P81" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Q81" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="R81" t="s">
         <v>44</v>
       </c>
       <c r="S81" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B82" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C82" s="1" t="n">
         <v>44290</v>
       </c>
       <c r="D82" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E82" t="s">
         <v>36</v>
@@ -7564,136 +7585,136 @@
       <c r="N82"/>
       <c r="O82"/>
       <c r="P82" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Q82" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="R82" t="s">
         <v>44</v>
       </c>
       <c r="S82" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B83" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44423</v>
+        <v>44426</v>
       </c>
       <c r="D83" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E83" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="H83" t="n">
-        <v>8635667</v>
+        <v>8802064</v>
       </c>
       <c r="I83" t="n">
-        <v>66.978</v>
+        <v>68.269</v>
       </c>
       <c r="J83" t="n">
-        <v>3985</v>
+        <v>18711</v>
       </c>
       <c r="K83" t="n">
-        <v>0.031</v>
+        <v>0.145</v>
       </c>
       <c r="L83" t="n">
-        <v>31753</v>
+        <v>30152</v>
       </c>
       <c r="M83" t="n">
-        <v>0.246</v>
+        <v>0.234</v>
       </c>
       <c r="N83" t="n">
-        <v>0.424</v>
+        <v>0.422</v>
       </c>
       <c r="O83" t="n">
         <v>2.4</v>
       </c>
       <c r="P83" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Q83" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="R83" t="s">
         <v>31</v>
       </c>
       <c r="S83" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B84" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="D84" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E84" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H84" t="n">
-        <v>1492901</v>
+        <v>1512076</v>
       </c>
       <c r="I84" t="n">
-        <v>370.083</v>
+        <v>374.836</v>
       </c>
       <c r="J84"/>
       <c r="K84"/>
       <c r="L84" t="n">
-        <v>5617</v>
+        <v>5522</v>
       </c>
       <c r="M84" t="n">
-        <v>1.392</v>
+        <v>1.369</v>
       </c>
       <c r="N84"/>
       <c r="O84"/>
       <c r="P84" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q84" t="s">
         <v>501</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>500</v>
       </c>
       <c r="R84" t="s">
         <v>24</v>
       </c>
       <c r="S84" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B85" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C85" s="1" t="n">
         <v>44388</v>
       </c>
       <c r="D85" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E85" t="s">
         <v>36</v>
@@ -7730,417 +7751,421 @@
         <v>36</v>
       </c>
       <c r="Q85" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="R85" t="s">
         <v>108</v>
       </c>
       <c r="S85" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B86" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44420</v>
+        <v>44427</v>
       </c>
       <c r="D86" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E86" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="H86" t="n">
-        <v>7454027</v>
+        <v>7735577</v>
       </c>
       <c r="I86" t="n">
-        <v>201.948</v>
+        <v>209.576</v>
       </c>
       <c r="J86" t="n">
-        <v>51434</v>
+        <v>44125</v>
       </c>
       <c r="K86" t="n">
-        <v>1.393</v>
+        <v>1.195</v>
       </c>
       <c r="L86" t="n">
-        <v>40619</v>
+        <v>40221</v>
       </c>
       <c r="M86" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N86" t="n">
-        <v>0.231</v>
+        <v>0.215</v>
       </c>
       <c r="O86" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="P86" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Q86" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="R86" t="s">
         <v>31</v>
       </c>
       <c r="S86" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B87" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="D87" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E87" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="H87" t="n">
-        <v>789771</v>
+        <v>815154</v>
       </c>
       <c r="I87" t="n">
-        <v>25.268</v>
+        <v>26.08</v>
       </c>
       <c r="J87" t="n">
-        <v>5604</v>
+        <v>4022</v>
       </c>
       <c r="K87" t="n">
-        <v>0.179</v>
+        <v>0.129</v>
       </c>
       <c r="L87" t="n">
-        <v>4736</v>
+        <v>3626</v>
       </c>
       <c r="M87" t="n">
-        <v>0.152</v>
+        <v>0.116</v>
       </c>
       <c r="N87" t="n">
-        <v>0.244</v>
+        <v>0.206</v>
       </c>
       <c r="O87" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="P87" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Q87" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="R87" t="s">
         <v>72</v>
       </c>
       <c r="S87" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B88" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="D88" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E88" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="H88" t="n">
-        <v>3298004</v>
+        <v>3383579</v>
       </c>
       <c r="I88" t="n">
-        <v>60.614</v>
+        <v>62.187</v>
       </c>
       <c r="J88" t="n">
-        <v>13767</v>
+        <v>11945</v>
       </c>
       <c r="K88" t="n">
-        <v>0.253</v>
+        <v>0.22</v>
       </c>
       <c r="L88" t="n">
-        <v>12631</v>
+        <v>12225</v>
       </c>
       <c r="M88" t="n">
-        <v>0.232</v>
+        <v>0.225</v>
       </c>
       <c r="N88" t="n">
-        <v>0.296</v>
+        <v>0.256</v>
       </c>
       <c r="O88" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="P88" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Q88" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="R88" t="s">
         <v>108</v>
       </c>
       <c r="S88" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B89" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="D89" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E89" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="H89" t="n">
-        <v>631650</v>
+        <v>641771</v>
       </c>
       <c r="I89" t="n">
-        <v>248.591</v>
+        <v>252.575</v>
       </c>
       <c r="J89" t="n">
-        <v>1567</v>
+        <v>1731</v>
       </c>
       <c r="K89" t="n">
-        <v>0.617</v>
+        <v>0.681</v>
       </c>
       <c r="L89" t="n">
-        <v>1852</v>
+        <v>1446</v>
       </c>
       <c r="M89" t="n">
-        <v>0.729</v>
+        <v>0.569</v>
       </c>
       <c r="N89" t="n">
-        <v>0.125</v>
+        <v>0.127</v>
       </c>
       <c r="O89" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="P89" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Q89" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="R89" t="s">
         <v>108</v>
       </c>
       <c r="S89" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B90" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44420</v>
+        <v>44427</v>
       </c>
       <c r="D90" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E90" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="H90" t="n">
-        <v>3729109</v>
+        <v>3803015</v>
       </c>
       <c r="I90" t="n">
-        <v>127.986</v>
+        <v>130.523</v>
       </c>
       <c r="J90" t="n">
-        <v>10806</v>
+        <v>11946</v>
       </c>
       <c r="K90" t="n">
-        <v>0.371</v>
+        <v>0.41</v>
       </c>
       <c r="L90" t="n">
-        <v>10395</v>
+        <v>10558</v>
       </c>
       <c r="M90" t="n">
-        <v>0.357</v>
+        <v>0.362</v>
       </c>
       <c r="N90" t="n">
-        <v>0.243</v>
+        <v>0.223</v>
       </c>
       <c r="O90" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="P90" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="Q90" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="R90" t="s">
         <v>44</v>
       </c>
       <c r="S90" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B91" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>44416</v>
+        <v>44423</v>
       </c>
       <c r="D91" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E91" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H91" t="n">
-        <v>12083348</v>
+        <v>12348581</v>
       </c>
       <c r="I91" t="n">
-        <v>705.19</v>
+        <v>720.67</v>
       </c>
       <c r="J91"/>
       <c r="K91"/>
       <c r="L91" t="n">
-        <v>16246</v>
+        <v>19402</v>
       </c>
       <c r="M91" t="n">
-        <v>0.948</v>
+        <v>1.132</v>
       </c>
       <c r="N91" t="n">
-        <v>0.063</v>
+        <v>0.073</v>
       </c>
       <c r="O91" t="n">
-        <v>15.9</v>
+        <v>13.7</v>
       </c>
       <c r="P91" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Q91" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="R91" t="s">
         <v>31</v>
       </c>
       <c r="S91" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B92" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="D92" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E92" t="s">
         <v>36</v>
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="H92" t="n">
-        <v>2564395</v>
+        <v>2612235</v>
       </c>
       <c r="I92" t="n">
-        <v>531.786</v>
-      </c>
-      <c r="J92"/>
-      <c r="K92"/>
+        <v>541.707</v>
+      </c>
+      <c r="J92" t="n">
+        <v>27899</v>
+      </c>
+      <c r="K92" t="n">
+        <v>5.785</v>
+      </c>
       <c r="L92" t="n">
-        <v>5052</v>
+        <v>9086</v>
       </c>
       <c r="M92" t="n">
-        <v>1.048</v>
+        <v>1.884</v>
       </c>
       <c r="N92"/>
       <c r="O92"/>
       <c r="P92" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="Q92" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R92" t="s">
         <v>44</v>
       </c>
       <c r="S92" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B93" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C93" s="1" t="n">
         <v>44425</v>
       </c>
       <c r="D93" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E93" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
@@ -8160,54 +8185,58 @@
       <c r="M93" t="n">
         <v>0.036</v>
       </c>
-      <c r="N93"/>
-      <c r="O93"/>
+      <c r="N93" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="O93" t="n">
+        <v>12</v>
+      </c>
       <c r="P93" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q93" t="s">
         <v>555</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>554</v>
       </c>
       <c r="R93" t="s">
         <v>108</v>
       </c>
       <c r="S93" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B94" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="D94" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E94" t="s">
         <v>36</v>
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H94" t="n">
-        <v>1045431</v>
+        <v>1079208</v>
       </c>
       <c r="I94" t="n">
-        <v>501.796</v>
+        <v>518.008</v>
       </c>
       <c r="J94"/>
       <c r="K94"/>
       <c r="L94" t="n">
-        <v>5659</v>
+        <v>8059</v>
       </c>
       <c r="M94" t="n">
-        <v>2.716</v>
+        <v>3.868</v>
       </c>
       <c r="N94"/>
       <c r="O94"/>
@@ -8215,87 +8244,87 @@
         <v>36</v>
       </c>
       <c r="Q94" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="R94" t="s">
         <v>44</v>
       </c>
       <c r="S94" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B95" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44422</v>
+        <v>44425</v>
       </c>
       <c r="D95" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E95" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="H95" t="n">
-        <v>6769438</v>
+        <v>6821287</v>
       </c>
       <c r="I95" t="n">
-        <v>1248.688</v>
+        <v>1258.252</v>
       </c>
       <c r="J95" t="n">
-        <v>8632</v>
+        <v>18859</v>
       </c>
       <c r="K95" t="n">
-        <v>1.592</v>
+        <v>3.479</v>
       </c>
       <c r="L95" t="n">
-        <v>16111</v>
+        <v>16339</v>
       </c>
       <c r="M95" t="n">
-        <v>2.972</v>
+        <v>3.014</v>
       </c>
       <c r="N95" t="n">
-        <v>0.032</v>
+        <v>0.033</v>
       </c>
       <c r="O95" t="n">
-        <v>31.6</v>
+        <v>30.4</v>
       </c>
       <c r="P95" t="s">
+        <v>566</v>
+      </c>
+      <c r="Q95" t="s">
         <v>565</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>564</v>
       </c>
       <c r="R95" t="s">
         <v>31</v>
       </c>
       <c r="S95" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B96" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C96" s="1" t="n">
         <v>44048</v>
       </c>
       <c r="D96" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E96" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F96"/>
       <c r="G96" t="n">
@@ -8314,190 +8343,194 @@
       <c r="N96"/>
       <c r="O96"/>
       <c r="P96" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Q96" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="R96" t="s">
         <v>72</v>
       </c>
       <c r="S96" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B97" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="D97" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E97" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="H97" t="n">
-        <v>16950196</v>
+        <v>17115272</v>
       </c>
       <c r="I97" t="n">
-        <v>76.735</v>
-      </c>
-      <c r="J97"/>
-      <c r="K97"/>
+        <v>77.482</v>
+      </c>
+      <c r="J97" t="n">
+        <v>51982</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.235</v>
+      </c>
       <c r="L97" t="n">
-        <v>56965</v>
+        <v>54320</v>
       </c>
       <c r="M97" t="n">
-        <v>0.258</v>
+        <v>0.246</v>
       </c>
       <c r="N97"/>
       <c r="O97"/>
       <c r="P97" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q97" t="s">
         <v>576</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>575</v>
       </c>
       <c r="R97" t="s">
         <v>44</v>
       </c>
       <c r="S97" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B98" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>44420</v>
+        <v>44427</v>
       </c>
       <c r="D98" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E98"/>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="H98"/>
       <c r="I98"/>
       <c r="J98" t="n">
-        <v>5040</v>
+        <v>6857</v>
       </c>
       <c r="K98" t="n">
-        <v>0.988</v>
+        <v>1.344</v>
       </c>
       <c r="L98" t="n">
-        <v>4172</v>
+        <v>5417</v>
       </c>
       <c r="M98" t="n">
-        <v>0.818</v>
+        <v>1.062</v>
       </c>
       <c r="N98" t="n">
-        <v>0.058</v>
+        <v>0.115</v>
       </c>
       <c r="O98" t="n">
-        <v>17.3</v>
+        <v>8.7</v>
       </c>
       <c r="P98" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Q98" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="R98" t="s">
         <v>44</v>
       </c>
       <c r="S98" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B99" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="D99" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E99" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="H99" t="n">
-        <v>3474388</v>
+        <v>3543469</v>
       </c>
       <c r="I99" t="n">
-        <v>805.232</v>
+        <v>821.242</v>
       </c>
       <c r="J99" t="n">
-        <v>11724</v>
+        <v>11486</v>
       </c>
       <c r="K99" t="n">
-        <v>2.717</v>
+        <v>2.662</v>
       </c>
       <c r="L99" t="n">
-        <v>10048</v>
+        <v>9869</v>
       </c>
       <c r="M99" t="n">
-        <v>2.329</v>
+        <v>2.287</v>
       </c>
       <c r="N99" t="n">
-        <v>0.084</v>
+        <v>0.073</v>
       </c>
       <c r="O99" t="n">
-        <v>11.9</v>
+        <v>13.6</v>
       </c>
       <c r="P99" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="Q99" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="R99" t="s">
         <v>44</v>
       </c>
       <c r="S99" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B100" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C100" s="1" t="n">
         <v>44304</v>
       </c>
       <c r="D100" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E100" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F100"/>
       <c r="G100" t="n">
@@ -8524,169 +8557,169 @@
         <v>5.1</v>
       </c>
       <c r="P100" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q100" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="R100" t="s">
         <v>24</v>
       </c>
       <c r="S100" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B101" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="D101" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E101" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="H101" t="n">
-        <v>1712947</v>
+        <v>1735964</v>
       </c>
       <c r="I101" t="n">
-        <v>240.16</v>
+        <v>243.387</v>
       </c>
       <c r="J101" t="n">
-        <v>3270</v>
+        <v>3481</v>
       </c>
       <c r="K101" t="n">
-        <v>0.458</v>
+        <v>0.488</v>
       </c>
       <c r="L101" t="n">
-        <v>3344</v>
+        <v>3288</v>
       </c>
       <c r="M101" t="n">
-        <v>0.469</v>
+        <v>0.461</v>
       </c>
       <c r="N101" t="n">
-        <v>0.097</v>
+        <v>0.05</v>
       </c>
       <c r="O101" t="n">
-        <v>10.3</v>
+        <v>19.9</v>
       </c>
       <c r="P101" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Q101" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="R101" t="s">
         <v>44</v>
       </c>
       <c r="S101" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B102" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>44407</v>
+        <v>44426</v>
       </c>
       <c r="D102" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E102" t="s">
         <v>167</v>
       </c>
       <c r="F102"/>
       <c r="G102" t="n">
-        <v>555</v>
+        <v>574</v>
       </c>
       <c r="H102" t="n">
-        <v>4774899</v>
+        <v>5037992</v>
       </c>
       <c r="I102" t="n">
-        <v>144.817</v>
+        <v>152.797</v>
       </c>
       <c r="J102" t="n">
-        <v>4490</v>
+        <v>4658</v>
       </c>
       <c r="K102" t="n">
-        <v>0.136</v>
+        <v>0.141</v>
       </c>
       <c r="L102" t="n">
-        <v>7282</v>
+        <v>9406</v>
       </c>
       <c r="M102" t="n">
-        <v>0.221</v>
+        <v>0.285</v>
       </c>
       <c r="N102" t="n">
-        <v>0.043</v>
+        <v>0.048</v>
       </c>
       <c r="O102" t="n">
-        <v>23.3</v>
+        <v>20.8</v>
       </c>
       <c r="P102" t="s">
         <v>167</v>
       </c>
       <c r="Q102" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="R102" t="s">
         <v>44</v>
       </c>
       <c r="S102" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B103" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44423</v>
+        <v>44426</v>
       </c>
       <c r="D103" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E103" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="H103" t="n">
-        <v>16624411</v>
+        <v>16810880</v>
       </c>
       <c r="I103" t="n">
-        <v>151.709</v>
+        <v>153.41</v>
       </c>
       <c r="J103" t="n">
-        <v>36439</v>
+        <v>64004</v>
       </c>
       <c r="K103" t="n">
-        <v>0.333</v>
+        <v>0.584</v>
       </c>
       <c r="L103" t="n">
-        <v>52869</v>
+        <v>56736</v>
       </c>
       <c r="M103" t="n">
-        <v>0.482</v>
+        <v>0.518</v>
       </c>
       <c r="N103" t="n">
         <v>0.223</v>
@@ -8695,430 +8728,434 @@
         <v>4.5</v>
       </c>
       <c r="P103" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q103" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="R103" t="s">
         <v>31</v>
       </c>
       <c r="S103" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B104" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>44420</v>
+        <v>44427</v>
       </c>
       <c r="D104" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E104" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F104"/>
       <c r="G104" t="n">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="H104" t="n">
-        <v>18659033</v>
+        <v>18932972</v>
       </c>
       <c r="I104" t="n">
-        <v>493.017</v>
+        <v>500.255</v>
       </c>
       <c r="J104" t="n">
-        <v>39320</v>
+        <v>37854</v>
       </c>
       <c r="K104" t="n">
-        <v>1.039</v>
+        <v>1</v>
       </c>
       <c r="L104" t="n">
-        <v>38832</v>
+        <v>39134</v>
       </c>
       <c r="M104" t="n">
-        <v>1.026</v>
+        <v>1.034</v>
       </c>
       <c r="N104" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="O104" t="n">
-        <v>235.1</v>
+        <v>210.9</v>
       </c>
       <c r="P104" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="Q104" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="R104" t="s">
         <v>31</v>
       </c>
       <c r="S104" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B105" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="D105" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E105" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="H105" t="n">
-        <v>19059617</v>
+        <v>19336157</v>
       </c>
       <c r="I105" t="n">
-        <v>503.602</v>
+        <v>510.909</v>
       </c>
       <c r="J105" t="n">
-        <v>39662</v>
+        <v>38238</v>
       </c>
       <c r="K105" t="n">
-        <v>1.048</v>
+        <v>1.01</v>
       </c>
       <c r="L105" t="n">
-        <v>39187</v>
+        <v>39506</v>
       </c>
       <c r="M105" t="n">
-        <v>1.035</v>
+        <v>1.044</v>
       </c>
       <c r="N105" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="O105" t="n">
-        <v>247.3</v>
+        <v>208.6</v>
       </c>
       <c r="P105" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="Q105" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="R105" t="s">
         <v>108</v>
       </c>
       <c r="S105" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B106" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44422</v>
+        <v>44426</v>
       </c>
       <c r="D106" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E106" t="s">
         <v>36</v>
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="H106" t="n">
-        <v>16178925</v>
+        <v>16378600</v>
       </c>
       <c r="I106" t="n">
-        <v>1586.681</v>
+        <v>1606.264</v>
       </c>
       <c r="J106" t="n">
-        <v>58231</v>
+        <v>54686</v>
       </c>
       <c r="K106" t="n">
-        <v>5.711</v>
+        <v>5.363</v>
       </c>
       <c r="L106" t="n">
-        <v>56869</v>
+        <v>57480</v>
       </c>
       <c r="M106" t="n">
-        <v>5.577</v>
+        <v>5.637</v>
       </c>
       <c r="N106" t="n">
         <v>0.041</v>
       </c>
       <c r="O106" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="P106" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="Q106" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="R106" t="s">
         <v>44</v>
       </c>
       <c r="S106" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B107" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44424</v>
+        <v>44426</v>
       </c>
       <c r="D107" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E107" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="H107" t="n">
-        <v>2420179</v>
+        <v>2432003</v>
       </c>
       <c r="I107" t="n">
-        <v>840.031</v>
+        <v>844.135</v>
       </c>
       <c r="J107" t="n">
-        <v>6085</v>
+        <v>6249</v>
       </c>
       <c r="K107" t="n">
-        <v>2.112</v>
+        <v>2.169</v>
       </c>
       <c r="L107" t="n">
-        <v>5567</v>
+        <v>5739</v>
       </c>
       <c r="M107" t="n">
-        <v>1.932</v>
+        <v>1.992</v>
       </c>
       <c r="N107" t="n">
         <v>0.039</v>
       </c>
       <c r="O107" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="P107" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q107" t="s">
         <v>627</v>
-      </c>
-      <c r="Q107" t="s">
-        <v>625</v>
       </c>
       <c r="R107" t="s">
         <v>31</v>
       </c>
       <c r="S107" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B108" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="D108" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E108" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H108" t="n">
-        <v>8889244</v>
+        <v>8949362</v>
       </c>
       <c r="I108" t="n">
-        <v>462.075</v>
+        <v>465.2</v>
       </c>
       <c r="J108"/>
       <c r="K108"/>
       <c r="L108" t="n">
-        <v>10389</v>
+        <v>13794</v>
       </c>
       <c r="M108" t="n">
-        <v>0.54</v>
+        <v>0.717</v>
       </c>
       <c r="N108"/>
       <c r="O108"/>
       <c r="P108" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="Q108" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="R108" t="s">
         <v>44</v>
       </c>
       <c r="S108" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B109" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="D109" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="E109" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H109" t="n">
-        <v>172840809</v>
+        <v>174175810</v>
       </c>
       <c r="I109" t="n">
-        <v>1184.373</v>
+        <v>1193.521</v>
       </c>
       <c r="J109"/>
       <c r="K109"/>
       <c r="L109" t="n">
-        <v>439582</v>
+        <v>432834</v>
       </c>
       <c r="M109" t="n">
-        <v>3.012</v>
+        <v>2.966</v>
       </c>
       <c r="N109" t="n">
         <v>0.048</v>
       </c>
       <c r="O109" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="P109" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="Q109" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="R109" t="s">
         <v>44</v>
       </c>
       <c r="S109" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B110" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="D110" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E110" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="H110" t="n">
-        <v>2242105</v>
+        <v>2272373</v>
       </c>
       <c r="I110" t="n">
-        <v>173.106</v>
-      </c>
-      <c r="J110"/>
-      <c r="K110"/>
+        <v>175.443</v>
+      </c>
+      <c r="J110" t="n">
+        <v>11534</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.891</v>
+      </c>
       <c r="L110" t="n">
-        <v>10947</v>
+        <v>10302</v>
       </c>
       <c r="M110" t="n">
-        <v>0.845</v>
+        <v>0.795</v>
       </c>
       <c r="N110"/>
       <c r="O110"/>
       <c r="P110" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="Q110" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="R110" t="s">
         <v>108</v>
       </c>
       <c r="S110" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B111" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="D111" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E111" t="s">
         <v>36</v>
       </c>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H111" t="n">
-        <v>27817</v>
+        <v>28307</v>
       </c>
       <c r="I111" t="n">
-        <v>522.955</v>
+        <v>532.166</v>
       </c>
       <c r="J111"/>
       <c r="K111"/>
       <c r="L111" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M111" t="n">
-        <v>2.35</v>
+        <v>2.294</v>
       </c>
       <c r="N111"/>
       <c r="O111"/>
@@ -9126,278 +9163,278 @@
         <v>36</v>
       </c>
       <c r="Q111" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="R111" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="S111" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B112" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>44424</v>
+        <v>44426</v>
       </c>
       <c r="D112" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="E112" t="s">
         <v>36</v>
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="H112" t="n">
-        <v>26565684</v>
+        <v>26708643</v>
       </c>
       <c r="I112" t="n">
-        <v>763.078</v>
+        <v>767.184</v>
       </c>
       <c r="J112" t="n">
-        <v>79383</v>
+        <v>69991</v>
       </c>
       <c r="K112" t="n">
-        <v>2.28</v>
+        <v>2.01</v>
       </c>
       <c r="L112" t="n">
-        <v>79628</v>
+        <v>75404</v>
       </c>
       <c r="M112" t="n">
-        <v>2.287</v>
+        <v>2.166</v>
       </c>
       <c r="N112" t="n">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="O112" t="n">
-        <v>77.5</v>
+        <v>73.4</v>
       </c>
       <c r="P112" t="s">
         <v>36</v>
       </c>
       <c r="Q112" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="R112" t="s">
         <v>44</v>
       </c>
       <c r="S112" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B113" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="D113" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="E113" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="H113" t="n">
-        <v>712864</v>
+        <v>720464</v>
       </c>
       <c r="I113" t="n">
-        <v>42.574</v>
+        <v>43.028</v>
       </c>
       <c r="J113" t="n">
-        <v>2808</v>
+        <v>2571</v>
       </c>
       <c r="K113" t="n">
-        <v>0.168</v>
+        <v>0.154</v>
       </c>
       <c r="L113" t="n">
-        <v>3317</v>
+        <v>3023</v>
       </c>
       <c r="M113" t="n">
-        <v>0.198</v>
+        <v>0.181</v>
       </c>
       <c r="N113" t="n">
-        <v>0.122</v>
+        <v>0.088</v>
       </c>
       <c r="O113" t="n">
-        <v>8.2</v>
+        <v>11.3</v>
       </c>
       <c r="P113" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="Q113" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="R113" t="s">
         <v>44</v>
       </c>
       <c r="S113" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B114" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="D114" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E114" t="s">
         <v>36</v>
       </c>
       <c r="F114" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="G114" t="n">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="H114" t="n">
-        <v>4831558</v>
+        <v>4870940</v>
       </c>
       <c r="I114" t="n">
-        <v>710.043</v>
+        <v>715.831</v>
       </c>
       <c r="J114" t="n">
-        <v>11761</v>
+        <v>12869</v>
       </c>
       <c r="K114" t="n">
-        <v>1.728</v>
+        <v>1.891</v>
       </c>
       <c r="L114" t="n">
-        <v>10824</v>
+        <v>11586</v>
       </c>
       <c r="M114" t="n">
-        <v>1.591</v>
+        <v>1.703</v>
       </c>
       <c r="N114" t="n">
-        <v>0.091</v>
+        <v>0.109</v>
       </c>
       <c r="O114" t="n">
-        <v>11</v>
+        <v>9.2</v>
       </c>
       <c r="P114" t="s">
         <v>36</v>
       </c>
       <c r="Q114" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="R114" t="s">
         <v>31</v>
       </c>
       <c r="S114" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B115" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>44417</v>
+        <v>44424</v>
       </c>
       <c r="D115" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="E115" t="s">
         <v>36</v>
       </c>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H115" t="n">
-        <v>16614807</v>
+        <v>16926698</v>
       </c>
       <c r="I115" t="n">
-        <v>2839.971</v>
+        <v>2893.283</v>
       </c>
       <c r="J115"/>
       <c r="K115"/>
       <c r="L115" t="n">
-        <v>58372</v>
+        <v>44556</v>
       </c>
       <c r="M115" t="n">
-        <v>9.978</v>
+        <v>7.616</v>
       </c>
       <c r="N115" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="O115" t="n">
-        <v>655.9</v>
+        <v>801.8</v>
       </c>
       <c r="P115" t="s">
         <v>36</v>
       </c>
       <c r="Q115" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="R115" t="s">
         <v>108</v>
       </c>
       <c r="S115" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B116" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44422</v>
+        <v>44426</v>
       </c>
       <c r="D116" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="E116" t="s">
         <v>36</v>
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="H116" t="n">
-        <v>40846316</v>
+        <v>40904258</v>
       </c>
       <c r="I116" t="n">
-        <v>7481.499</v>
+        <v>7492.112</v>
       </c>
       <c r="J116" t="n">
-        <v>11094</v>
+        <v>12873</v>
       </c>
       <c r="K116" t="n">
-        <v>2.032</v>
+        <v>2.358</v>
       </c>
       <c r="L116" t="n">
-        <v>13806</v>
+        <v>14379</v>
       </c>
       <c r="M116" t="n">
-        <v>2.529</v>
+        <v>2.634</v>
       </c>
       <c r="N116" t="n">
         <v>0.007</v>
@@ -9409,90 +9446,90 @@
         <v>36</v>
       </c>
       <c r="Q116" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="R116" t="s">
         <v>44</v>
       </c>
       <c r="S116" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B117" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="D117" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="E117" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="H117" t="n">
-        <v>1416341</v>
+        <v>1423354</v>
       </c>
       <c r="I117" t="n">
-        <v>681.283</v>
+        <v>684.656</v>
       </c>
       <c r="J117" t="n">
-        <v>2058</v>
+        <v>2481</v>
       </c>
       <c r="K117" t="n">
-        <v>0.99</v>
+        <v>1.193</v>
       </c>
       <c r="L117" t="n">
-        <v>1613</v>
+        <v>1802</v>
       </c>
       <c r="M117" t="n">
-        <v>0.776</v>
+        <v>0.867</v>
       </c>
       <c r="N117" t="n">
-        <v>0.127</v>
+        <v>0.145</v>
       </c>
       <c r="O117" t="n">
-        <v>7.9</v>
+        <v>6.9</v>
       </c>
       <c r="P117" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="Q117" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="R117" t="s">
         <v>44</v>
       </c>
       <c r="S117" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B118" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C118" s="1" t="n">
         <v>44407</v>
       </c>
       <c r="D118" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="E118" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="F118" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="G118" t="n">
         <v>510</v>
@@ -9522,79 +9559,83 @@
         <v>4.2</v>
       </c>
       <c r="P118" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="Q118" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="R118" t="s">
         <v>31</v>
       </c>
       <c r="S118" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B119" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="D119" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="E119" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="H119" t="n">
-        <v>11784297</v>
+        <v>11907419</v>
       </c>
       <c r="I119" t="n">
-        <v>229.851</v>
-      </c>
-      <c r="J119"/>
-      <c r="K119"/>
+        <v>232.253</v>
+      </c>
+      <c r="J119" t="n">
+        <v>41455</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.809</v>
+      </c>
       <c r="L119" t="n">
-        <v>19733</v>
+        <v>26998</v>
       </c>
       <c r="M119" t="n">
-        <v>0.385</v>
+        <v>0.527</v>
       </c>
       <c r="N119"/>
       <c r="O119"/>
       <c r="P119" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="Q119" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="R119" t="s">
         <v>31</v>
       </c>
       <c r="S119" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B120" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C120" s="1" t="n">
         <v>44342</v>
       </c>
       <c r="D120" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="E120" t="s">
         <v>36</v>
@@ -9627,304 +9668,304 @@
         <v>36</v>
       </c>
       <c r="Q120" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="R120" t="s">
         <v>44</v>
       </c>
       <c r="S120" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B121" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>44413</v>
+        <v>44420</v>
       </c>
       <c r="D121" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="E121" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="F121"/>
       <c r="G121" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H121" t="n">
-        <v>52887516</v>
+        <v>53892999</v>
       </c>
       <c r="I121" t="n">
-        <v>1131.168</v>
+        <v>1152.673</v>
       </c>
       <c r="J121"/>
       <c r="K121"/>
       <c r="L121" t="n">
-        <v>154557</v>
+        <v>132552</v>
       </c>
       <c r="M121" t="n">
-        <v>3.306</v>
+        <v>2.835</v>
       </c>
       <c r="N121" t="n">
-        <v>0.133</v>
+        <v>0.12</v>
       </c>
       <c r="O121" t="n">
-        <v>7.5</v>
+        <v>8.3</v>
       </c>
       <c r="P121" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="Q121" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="R121" t="s">
         <v>44</v>
       </c>
       <c r="S121" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B122" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44421</v>
+        <v>44427</v>
       </c>
       <c r="D122" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="E122" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="H122" t="n">
-        <v>4668769</v>
+        <v>4725632</v>
       </c>
       <c r="I122" t="n">
-        <v>218.032</v>
+        <v>220.687</v>
       </c>
       <c r="J122" t="n">
-        <v>18174</v>
+        <v>22290</v>
       </c>
       <c r="K122" t="n">
-        <v>0.849</v>
+        <v>1.041</v>
       </c>
       <c r="L122" t="n">
-        <v>17993</v>
+        <v>10720</v>
       </c>
       <c r="M122" t="n">
-        <v>0.84</v>
+        <v>0.501</v>
       </c>
       <c r="N122" t="n">
-        <v>0.191</v>
+        <v>0.374</v>
       </c>
       <c r="O122" t="n">
-        <v>5.2</v>
+        <v>2.7</v>
       </c>
       <c r="P122" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="Q122" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="R122" t="s">
         <v>44</v>
       </c>
       <c r="S122" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B123" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>44416</v>
+        <v>44423</v>
       </c>
       <c r="D123" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="E123" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="F123"/>
       <c r="G123" t="n">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="H123"/>
       <c r="I123"/>
       <c r="J123" t="n">
-        <v>12950</v>
+        <v>14839</v>
       </c>
       <c r="K123" t="n">
-        <v>1.282</v>
+        <v>1.469</v>
       </c>
       <c r="L123" t="n">
-        <v>12950</v>
+        <v>14839</v>
       </c>
       <c r="M123" t="n">
-        <v>1.282</v>
+        <v>1.469</v>
       </c>
       <c r="N123" t="n">
-        <v>0.05</v>
+        <v>0.054</v>
       </c>
       <c r="O123" t="n">
-        <v>20.2</v>
+        <v>18.5</v>
       </c>
       <c r="P123" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="Q123" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="R123" t="s">
         <v>44</v>
       </c>
       <c r="S123" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B124" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>44422</v>
+        <v>44426</v>
       </c>
       <c r="D124" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E124" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="H124" t="n">
-        <v>8952843</v>
+        <v>9026925</v>
       </c>
       <c r="I124" t="n">
-        <v>1034.458</v>
+        <v>1043.018</v>
       </c>
       <c r="J124" t="n">
-        <v>19622</v>
+        <v>18854</v>
       </c>
       <c r="K124" t="n">
-        <v>2.267</v>
+        <v>2.178</v>
       </c>
       <c r="L124" t="n">
-        <v>19564</v>
+        <v>20606</v>
       </c>
       <c r="M124" t="n">
-        <v>2.261</v>
+        <v>2.381</v>
       </c>
       <c r="N124" t="n">
-        <v>0.112</v>
+        <v>0.132</v>
       </c>
       <c r="O124" t="n">
-        <v>8.9</v>
+        <v>7.6</v>
       </c>
       <c r="P124" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q124" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="R124" t="s">
         <v>44</v>
       </c>
       <c r="S124" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B125" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="D125" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="E125" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="H125" t="n">
-        <v>2382988</v>
+        <v>2450350</v>
       </c>
       <c r="I125" t="n">
-        <v>100.055</v>
+        <v>102.883</v>
       </c>
       <c r="J125" t="n">
-        <v>16277</v>
+        <v>11804</v>
       </c>
       <c r="K125" t="n">
-        <v>0.683</v>
+        <v>0.496</v>
       </c>
       <c r="L125" t="n">
-        <v>18583</v>
+        <v>19159</v>
       </c>
       <c r="M125" t="n">
-        <v>0.78</v>
+        <v>0.804</v>
       </c>
       <c r="N125" t="n">
         <v>0.001</v>
       </c>
       <c r="O125" t="n">
-        <v>1806.6</v>
+        <v>1741.7</v>
       </c>
       <c r="P125" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="Q125" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="R125" t="s">
         <v>31</v>
       </c>
       <c r="S125" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B126" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C126" s="1" t="n">
         <v>44387</v>
       </c>
       <c r="D126" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="E126" t="s">
         <v>190</v>
@@ -9954,245 +9995,251 @@
       <c r="N126"/>
       <c r="O126"/>
       <c r="P126" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="Q126" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="R126" t="s">
         <v>44</v>
       </c>
       <c r="S126" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B127" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="D127" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="E127" t="s">
         <v>36</v>
       </c>
       <c r="F127"/>
       <c r="G127" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H127" t="n">
-        <v>170647</v>
+        <v>171936</v>
       </c>
       <c r="I127" t="n">
-        <v>129.431</v>
-      </c>
-      <c r="J127"/>
-      <c r="K127"/>
+        <v>130.408</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1289</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.978</v>
+      </c>
       <c r="L127" t="n">
-        <v>862</v>
+        <v>921</v>
       </c>
       <c r="M127" t="n">
-        <v>0.654</v>
-      </c>
-      <c r="N127"/>
-      <c r="O127"/>
+        <v>0.699</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="O127" t="n">
+        <v>5</v>
+      </c>
       <c r="P127" t="s">
         <v>36</v>
       </c>
       <c r="Q127" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="R127" t="s">
         <v>24</v>
       </c>
       <c r="S127" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B128" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44420</v>
+        <v>44426</v>
       </c>
       <c r="D128"/>
       <c r="E128" t="s">
-        <v>737</v>
-      </c>
-      <c r="F128" t="s">
-        <v>738</v>
-      </c>
+        <v>739</v>
+      </c>
+      <c r="F128"/>
       <c r="G128" t="n">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H128" t="n">
-        <v>425908</v>
+        <v>437491</v>
       </c>
       <c r="I128" t="n">
-        <v>51.446</v>
+        <v>52.845</v>
       </c>
       <c r="J128" t="n">
-        <v>1879</v>
+        <v>2122</v>
       </c>
       <c r="K128" t="n">
-        <v>0.227</v>
+        <v>0.256</v>
       </c>
       <c r="L128" t="n">
-        <v>1856</v>
+        <v>1923</v>
       </c>
       <c r="M128" t="n">
-        <v>0.224</v>
+        <v>0.232</v>
       </c>
       <c r="N128" t="n">
-        <v>0.093</v>
+        <v>0.101</v>
       </c>
       <c r="O128" t="n">
-        <v>10.8</v>
+        <v>9.9</v>
       </c>
       <c r="P128" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="Q128" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="R128" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="S128" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B129" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>44418</v>
+        <v>44420</v>
       </c>
       <c r="D129" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="E129" t="s">
         <v>36</v>
       </c>
       <c r="F129"/>
       <c r="G129" t="n">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H129" t="n">
-        <v>283910</v>
+        <v>285856</v>
       </c>
       <c r="I129" t="n">
-        <v>202.867</v>
+        <v>204.257</v>
       </c>
       <c r="J129" t="n">
-        <v>4993</v>
+        <v>850</v>
       </c>
       <c r="K129" t="n">
-        <v>3.568</v>
+        <v>0.607</v>
       </c>
       <c r="L129" t="n">
-        <v>1350</v>
+        <v>1386</v>
       </c>
       <c r="M129" t="n">
-        <v>0.965</v>
+        <v>0.99</v>
       </c>
       <c r="N129" t="n">
-        <v>0.149</v>
+        <v>0.168</v>
       </c>
       <c r="O129" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="P129" t="s">
         <v>36</v>
       </c>
       <c r="Q129" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="R129" t="s">
         <v>31</v>
       </c>
       <c r="S129" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B130" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="D130" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E130" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F130"/>
       <c r="G130" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H130" t="n">
-        <v>2409634</v>
+        <v>2434016</v>
       </c>
       <c r="I130" t="n">
-        <v>203.885</v>
+        <v>205.948</v>
       </c>
       <c r="J130"/>
       <c r="K130"/>
       <c r="L130" t="n">
-        <v>9090</v>
+        <v>9250</v>
       </c>
       <c r="M130" t="n">
-        <v>0.769</v>
+        <v>0.783</v>
       </c>
       <c r="N130"/>
       <c r="O130"/>
       <c r="P130" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="Q130" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="R130" t="s">
         <v>31</v>
       </c>
       <c r="S130" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B131" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C131" s="1" t="n">
         <v>44380</v>
       </c>
       <c r="D131" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E131" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="F131"/>
       <c r="G131" t="n">
@@ -10223,519 +10270,527 @@
         <v>43.2</v>
       </c>
       <c r="P131" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="Q131" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="R131" t="s">
         <v>44</v>
       </c>
       <c r="S131" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B132" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>44418</v>
+        <v>44425</v>
       </c>
       <c r="D132" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E132" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="H132" t="n">
-        <v>1511089</v>
+        <v>1536425</v>
       </c>
       <c r="I132" t="n">
-        <v>33.036</v>
+        <v>33.59</v>
       </c>
       <c r="J132" t="n">
-        <v>3241</v>
+        <v>3099</v>
       </c>
       <c r="K132" t="n">
-        <v>0.071</v>
+        <v>0.068</v>
       </c>
       <c r="L132" t="n">
-        <v>3448</v>
+        <v>3619</v>
       </c>
       <c r="M132" t="n">
-        <v>0.075</v>
+        <v>0.079</v>
       </c>
       <c r="N132" t="n">
-        <v>0.059</v>
+        <v>0.049</v>
       </c>
       <c r="O132" t="n">
-        <v>17</v>
+        <v>20.6</v>
       </c>
       <c r="P132" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="Q132" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="R132" t="s">
         <v>108</v>
       </c>
       <c r="S132" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B133" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>44425</v>
+        <v>44428</v>
       </c>
       <c r="D133" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E133" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="H133" t="n">
-        <v>11699182</v>
+        <v>11773325</v>
       </c>
       <c r="I133" t="n">
-        <v>267.509</v>
-      </c>
-      <c r="J133"/>
-      <c r="K133"/>
+        <v>269.205</v>
+      </c>
+      <c r="J133" t="n">
+        <v>23478</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.537</v>
+      </c>
       <c r="L133" t="n">
-        <v>20000</v>
+        <v>20878</v>
       </c>
       <c r="M133" t="n">
-        <v>0.457</v>
+        <v>0.477</v>
       </c>
       <c r="N133"/>
       <c r="O133"/>
       <c r="P133" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="Q133" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="R133" t="s">
         <v>44</v>
       </c>
       <c r="S133" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B134" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="D134" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E134" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H134" t="n">
-        <v>70094386</v>
+        <v>70987563</v>
       </c>
       <c r="I134" t="n">
-        <v>7087.113</v>
+        <v>7177.421</v>
       </c>
       <c r="J134" t="n">
-        <v>249792</v>
+        <v>318348</v>
       </c>
       <c r="K134" t="n">
-        <v>25.256</v>
+        <v>32.188</v>
       </c>
       <c r="L134" t="n">
-        <v>281146</v>
+        <v>280085</v>
       </c>
       <c r="M134" t="n">
-        <v>28.426</v>
+        <v>28.319</v>
       </c>
       <c r="N134" t="n">
         <v>0.004</v>
       </c>
       <c r="O134" t="n">
-        <v>228.8</v>
+        <v>245.1</v>
       </c>
       <c r="P134" t="s">
+        <v>776</v>
+      </c>
+      <c r="Q134" t="s">
         <v>775</v>
-      </c>
-      <c r="Q134" t="s">
-        <v>774</v>
       </c>
       <c r="R134" t="s">
         <v>44</v>
       </c>
       <c r="S134" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B135" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>44423</v>
+        <v>44426</v>
       </c>
       <c r="D135" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E135" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="F135" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="G135" t="n">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="H135" t="n">
-        <v>231588398</v>
+        <v>233809959</v>
       </c>
       <c r="I135" t="n">
-        <v>3411.431</v>
+        <v>3444.156</v>
       </c>
       <c r="J135" t="n">
-        <v>661103</v>
+        <v>813360</v>
       </c>
       <c r="K135" t="n">
-        <v>9.738</v>
+        <v>11.981</v>
       </c>
       <c r="L135" t="n">
-        <v>747277</v>
+        <v>738525</v>
       </c>
       <c r="M135" t="n">
-        <v>11.008</v>
+        <v>10.879</v>
       </c>
       <c r="N135" t="n">
-        <v>0.038</v>
+        <v>0.041</v>
       </c>
       <c r="O135" t="n">
-        <v>26.3</v>
+        <v>24.6</v>
       </c>
       <c r="P135" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="Q135" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="R135" t="s">
         <v>44</v>
       </c>
       <c r="S135" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B136" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>44420</v>
+        <v>44424</v>
       </c>
       <c r="D136" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E136" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="H136" t="n">
-        <v>503184974</v>
+        <v>507032525</v>
       </c>
       <c r="I136" t="n">
-        <v>1520.184</v>
+        <v>1531.808</v>
       </c>
       <c r="J136" t="n">
-        <v>691719</v>
+        <v>252720</v>
       </c>
       <c r="K136" t="n">
-        <v>2.09</v>
+        <v>0.763</v>
       </c>
       <c r="L136" t="n">
-        <v>864682</v>
+        <v>888640</v>
       </c>
       <c r="M136" t="n">
-        <v>2.612</v>
+        <v>2.685</v>
       </c>
       <c r="N136" t="n">
-        <v>0.143</v>
+        <v>0.151</v>
       </c>
       <c r="O136" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="P136" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="Q136" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="R136" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="S136" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B137" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>44422</v>
+        <v>44427</v>
       </c>
       <c r="D137" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="E137" t="s">
         <v>190</v>
       </c>
       <c r="F137"/>
       <c r="G137" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="H137" t="n">
-        <v>3207026</v>
+        <v>3234738</v>
       </c>
       <c r="I137" t="n">
-        <v>923.223</v>
-      </c>
-      <c r="J137"/>
-      <c r="K137"/>
+        <v>931.201</v>
+      </c>
+      <c r="J137" t="n">
+        <v>10539</v>
+      </c>
+      <c r="K137" t="n">
+        <v>3.034</v>
+      </c>
       <c r="L137" t="n">
-        <v>10879</v>
+        <v>7621</v>
       </c>
       <c r="M137" t="n">
-        <v>3.132</v>
+        <v>2.194</v>
       </c>
       <c r="N137" t="n">
-        <v>0.011</v>
+        <v>0.014</v>
       </c>
       <c r="O137" t="n">
-        <v>89.4</v>
+        <v>70.1</v>
       </c>
       <c r="P137" t="s">
         <v>190</v>
       </c>
       <c r="Q137" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="R137" t="s">
         <v>44</v>
       </c>
       <c r="S137" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B138" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>44418</v>
+        <v>44425</v>
       </c>
       <c r="D138" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E138" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F138"/>
       <c r="G138" t="n">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H138" t="n">
-        <v>9819987</v>
+        <v>10939961</v>
       </c>
       <c r="I138" t="n">
-        <v>100.885</v>
+        <v>112.391</v>
       </c>
       <c r="J138" t="n">
-        <v>175150</v>
+        <v>209518</v>
       </c>
       <c r="K138" t="n">
-        <v>1.799</v>
+        <v>2.152</v>
       </c>
       <c r="L138" t="n">
-        <v>136493</v>
+        <v>159996</v>
       </c>
       <c r="M138" t="n">
-        <v>1.402</v>
+        <v>1.644</v>
       </c>
       <c r="N138" t="n">
-        <v>0.061</v>
+        <v>0.054</v>
       </c>
       <c r="O138" t="n">
-        <v>16.3</v>
+        <v>18.6</v>
       </c>
       <c r="P138" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="Q138" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="R138" t="s">
         <v>108</v>
       </c>
       <c r="S138" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B139" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>44424</v>
+        <v>44427</v>
       </c>
       <c r="D139" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="E139" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="F139"/>
       <c r="G139" t="n">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H139" t="n">
-        <v>2181685</v>
+        <v>2201555</v>
       </c>
       <c r="I139" t="n">
-        <v>118.673</v>
+        <v>119.754</v>
       </c>
       <c r="J139" t="n">
-        <v>3503</v>
+        <v>6811</v>
       </c>
       <c r="K139" t="n">
-        <v>0.191</v>
+        <v>0.37</v>
       </c>
       <c r="L139" t="n">
-        <v>5236</v>
+        <v>4735</v>
       </c>
       <c r="M139" t="n">
-        <v>0.285</v>
+        <v>0.258</v>
       </c>
       <c r="N139" t="n">
-        <v>0.061</v>
+        <v>0.054</v>
       </c>
       <c r="O139" t="n">
-        <v>16.5</v>
+        <v>18.6</v>
       </c>
       <c r="P139" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="Q139" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="R139" t="s">
         <v>44</v>
       </c>
       <c r="S139" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B140" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>44419</v>
+        <v>44426</v>
       </c>
       <c r="D140" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E140" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="F140"/>
       <c r="G140" t="n">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="H140" t="n">
-        <v>1031309</v>
+        <v>1075390</v>
       </c>
       <c r="I140" t="n">
-        <v>69.388</v>
+        <v>72.354</v>
       </c>
       <c r="J140" t="n">
-        <v>6182</v>
+        <v>5314</v>
       </c>
       <c r="K140" t="n">
-        <v>0.416</v>
+        <v>0.358</v>
       </c>
       <c r="L140" t="n">
-        <v>5524</v>
+        <v>6297</v>
       </c>
       <c r="M140" t="n">
-        <v>0.372</v>
+        <v>0.424</v>
       </c>
       <c r="N140" t="n">
-        <v>0.115</v>
+        <v>0.08</v>
       </c>
       <c r="O140" t="n">
-        <v>8.7</v>
+        <v>12.4</v>
       </c>
       <c r="P140" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="Q140" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="R140" t="s">
         <v>44</v>
       </c>
       <c r="S140" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
   </sheetData>
